--- a/Data IMF annuelles PIB output gap.xlsx
+++ b/Data IMF annuelles PIB output gap.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\ENSAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01ED0C81-EEC8-430A-B121-B3DFB887CC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260391BE-C39E-43AC-A775-B06B231C3880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data IMF annuelles PIB output g" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data IMF annuelles PIB output g'!$A$1:$AW$83</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="2701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="2702">
   <si>
     <t>Country</t>
   </si>
@@ -8123,12 +8127,15 @@
   </si>
   <si>
     <t>International Monetary Fund, World Economic Outlook Database, October 2021</t>
+  </si>
+  <si>
+    <t>See notes for:  Gross domestic product, constant prices (National currency),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8962,16 +8969,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AW85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="AG31" workbookViewId="0">
+      <selection sqref="A1:AW83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9120,7 +9128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9269,7 +9277,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9415,7 +9423,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -9564,7 +9572,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -9710,7 +9718,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -9859,7 +9867,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -10005,7 +10013,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -10154,7 +10162,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -10300,7 +10308,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -10449,7 +10457,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>363</v>
       </c>
@@ -10460,7 +10468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -10609,7 +10617,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>408</v>
       </c>
@@ -10620,7 +10628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>453</v>
       </c>
@@ -10769,7 +10777,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>453</v>
       </c>
@@ -10780,7 +10788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>498</v>
       </c>
@@ -10929,7 +10937,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>498</v>
       </c>
@@ -10940,7 +10948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -11089,7 +11097,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>543</v>
       </c>
@@ -11100,7 +11108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>574</v>
       </c>
@@ -11249,7 +11257,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>574</v>
       </c>
@@ -11395,7 +11403,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>661</v>
       </c>
@@ -11544,7 +11552,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>661</v>
       </c>
@@ -11690,7 +11698,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>719</v>
       </c>
@@ -11839,7 +11847,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>719</v>
       </c>
@@ -11985,7 +11993,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>805</v>
       </c>
@@ -12134,7 +12142,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>805</v>
       </c>
@@ -12280,7 +12288,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>892</v>
       </c>
@@ -12429,7 +12437,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>892</v>
       </c>
@@ -12575,7 +12583,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>977</v>
       </c>
@@ -12724,7 +12732,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>977</v>
       </c>
@@ -12870,7 +12878,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1064</v>
       </c>
@@ -13019,7 +13027,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1064</v>
       </c>
@@ -13030,7 +13038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1109</v>
       </c>
@@ -13179,7 +13187,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1109</v>
       </c>
@@ -13190,7 +13198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1154</v>
       </c>
@@ -13339,7 +13347,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1154</v>
       </c>
@@ -13350,7 +13358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1199</v>
       </c>
@@ -13499,7 +13507,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1199</v>
       </c>
@@ -13510,7 +13518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1244</v>
       </c>
@@ -13659,7 +13667,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1244</v>
       </c>
@@ -13805,7 +13813,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1331</v>
       </c>
@@ -13954,7 +13962,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1331</v>
       </c>
@@ -13965,7 +13973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1376</v>
       </c>
@@ -14114,7 +14122,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1376</v>
       </c>
@@ -14260,7 +14268,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1459</v>
       </c>
@@ -14409,7 +14417,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1459</v>
       </c>
@@ -14555,7 +14563,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1545</v>
       </c>
@@ -14704,7 +14712,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1545</v>
       </c>
@@ -14850,7 +14858,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1630</v>
       </c>
@@ -14999,7 +15007,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1630</v>
       </c>
@@ -15010,7 +15018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1663</v>
       </c>
@@ -15159,7 +15167,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1663</v>
       </c>
@@ -15170,7 +15178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1693</v>
       </c>
@@ -15319,7 +15327,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1693</v>
       </c>
@@ -15465,7 +15473,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1771</v>
       </c>
@@ -15614,7 +15622,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1771</v>
       </c>
@@ -15625,7 +15633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1816</v>
       </c>
@@ -15774,7 +15782,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1816</v>
       </c>
@@ -15920,7 +15928,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1898</v>
       </c>
@@ -16069,7 +16077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1898</v>
       </c>
@@ -16215,7 +16223,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1969</v>
       </c>
@@ -16364,7 +16372,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1969</v>
       </c>
@@ -16510,7 +16518,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2053</v>
       </c>
@@ -16659,7 +16667,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2053</v>
       </c>
@@ -16670,7 +16678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2098</v>
       </c>
@@ -16819,7 +16827,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2098</v>
       </c>
@@ -16965,7 +16973,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2180</v>
       </c>
@@ -17114,7 +17122,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2180</v>
       </c>
@@ -17260,7 +17268,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2241</v>
       </c>
@@ -17409,7 +17417,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2241</v>
       </c>
@@ -17420,7 +17428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2273</v>
       </c>
@@ -17569,7 +17577,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2273</v>
       </c>
@@ -17715,7 +17723,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2359</v>
       </c>
@@ -17864,7 +17872,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2359</v>
       </c>
@@ -18010,7 +18018,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2443</v>
       </c>
@@ -18159,7 +18167,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2443</v>
       </c>
@@ -18170,7 +18178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2488</v>
       </c>
@@ -18319,7 +18327,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2488</v>
       </c>
@@ -18330,7 +18338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2533</v>
       </c>
@@ -18479,7 +18487,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2533</v>
       </c>
@@ -18625,7 +18633,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:49" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2615</v>
       </c>
@@ -18774,7 +18782,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2615</v>
       </c>
@@ -18920,9 +18928,3808 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2700</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AW83" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Output gap in percent of potential GDP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3F4298-0CA7-42A4-A63B-F2C6749E72FB}">
+  <dimension ref="A1:AP48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K1" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M1" t="s">
+        <v>719</v>
+      </c>
+      <c r="N1" t="s">
+        <v>805</v>
+      </c>
+      <c r="O1" t="s">
+        <v>892</v>
+      </c>
+      <c r="P1" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1980</v>
+      </c>
+      <c r="B6">
+        <v>-0.89900000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D6">
+        <v>-0.318</v>
+      </c>
+      <c r="E6">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="L6" t="s">
+        <v>545</v>
+      </c>
+      <c r="M6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="O6">
+        <v>2.484</v>
+      </c>
+      <c r="P6">
+        <v>2.044</v>
+      </c>
+      <c r="U6">
+        <v>10.967000000000001</v>
+      </c>
+      <c r="W6" t="s">
+        <v>545</v>
+      </c>
+      <c r="X6">
+        <v>-1.4079999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>-5.6269999999999998</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD6">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF6">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>5.61</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK6">
+        <v>-2.66</v>
+      </c>
+      <c r="AL6">
+        <v>7.766</v>
+      </c>
+      <c r="AO6">
+        <v>-1.006</v>
+      </c>
+      <c r="AP6">
+        <v>-2.7519999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1981</v>
+      </c>
+      <c r="B7">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C7">
+        <v>-1.58</v>
+      </c>
+      <c r="D7">
+        <v>-2.153</v>
+      </c>
+      <c r="E7">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-2.7429999999999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M7">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="P7">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="U7">
+        <v>11.032</v>
+      </c>
+      <c r="W7">
+        <v>-0.92200000000000004</v>
+      </c>
+      <c r="X7">
+        <v>-0.12</v>
+      </c>
+      <c r="Y7">
+        <v>-7.1390000000000002</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD7">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF7">
+        <v>0.12</v>
+      </c>
+      <c r="AH7">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK7">
+        <v>-4.7380000000000004</v>
+      </c>
+      <c r="AL7">
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="AO7">
+        <v>-2.8180000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>-2.0449999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1982</v>
+      </c>
+      <c r="B8">
+        <v>-1.7529999999999999</v>
+      </c>
+      <c r="C8">
+        <v>-1.476</v>
+      </c>
+      <c r="D8">
+        <v>-3.149</v>
+      </c>
+      <c r="E8">
+        <v>-3.5379999999999998</v>
+      </c>
+      <c r="K8">
+        <v>-1.76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>545</v>
+      </c>
+      <c r="M8">
+        <v>-0.56200000000000006</v>
+      </c>
+      <c r="N8">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="O8">
+        <v>-2.0670000000000002</v>
+      </c>
+      <c r="P8">
+        <v>-2.0179999999999998</v>
+      </c>
+      <c r="U8">
+        <v>10.891999999999999</v>
+      </c>
+      <c r="W8">
+        <v>-2.35</v>
+      </c>
+      <c r="X8">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>-7.5369999999999999</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD8">
+        <v>-2.444</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF8">
+        <v>-1.7649999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>3.8029999999999999</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK8">
+        <v>-5.2009999999999996</v>
+      </c>
+      <c r="AL8">
+        <v>-1.462</v>
+      </c>
+      <c r="AO8">
+        <v>-2.4980000000000002</v>
+      </c>
+      <c r="AP8">
+        <v>-6.5469999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1983</v>
+      </c>
+      <c r="B9">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="C9">
+        <v>-0.504</v>
+      </c>
+      <c r="D9">
+        <v>-4.4649999999999999</v>
+      </c>
+      <c r="E9">
+        <v>-3.569</v>
+      </c>
+      <c r="K9">
+        <v>-1.7929999999999999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>545</v>
+      </c>
+      <c r="M9">
+        <v>-0.61799999999999999</v>
+      </c>
+      <c r="N9">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="O9">
+        <v>-2.556</v>
+      </c>
+      <c r="P9">
+        <v>-3.4409999999999998</v>
+      </c>
+      <c r="U9">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="W9">
+        <v>-3.552</v>
+      </c>
+      <c r="X9">
+        <v>1.179</v>
+      </c>
+      <c r="Y9">
+        <v>-3.847</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD9">
+        <v>-2.3889999999999998</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF9">
+        <v>-2.1859999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK9">
+        <v>-5.4029999999999996</v>
+      </c>
+      <c r="AL9">
+        <v>-1.361</v>
+      </c>
+      <c r="AO9">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="AP9">
+        <v>-5.1580000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1984</v>
+      </c>
+      <c r="B10">
+        <v>-2.6560000000000001</v>
+      </c>
+      <c r="C10">
+        <v>-2.323</v>
+      </c>
+      <c r="D10">
+        <v>-3.8959999999999999</v>
+      </c>
+      <c r="E10">
+        <v>-0.84599999999999997</v>
+      </c>
+      <c r="K10">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>545</v>
+      </c>
+      <c r="M10">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="N10">
+        <v>-0.77200000000000002</v>
+      </c>
+      <c r="O10">
+        <v>-1.9690000000000001</v>
+      </c>
+      <c r="P10">
+        <v>-1.976</v>
+      </c>
+      <c r="U10">
+        <v>6.4640000000000004</v>
+      </c>
+      <c r="W10">
+        <v>-2.86</v>
+      </c>
+      <c r="X10">
+        <v>2.66</v>
+      </c>
+      <c r="Y10">
+        <v>-2.7890000000000001</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD10">
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF10">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>-3.0169999999999999</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK10">
+        <v>-5.6440000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="AO10">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>-1.4590000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1985</v>
+      </c>
+      <c r="B11">
+        <v>-1.355</v>
+      </c>
+      <c r="C11">
+        <v>-2.09</v>
+      </c>
+      <c r="D11">
+        <v>-4.125</v>
+      </c>
+      <c r="E11">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="K11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>545</v>
+      </c>
+      <c r="M11">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="N11">
+        <v>-1.3029999999999999</v>
+      </c>
+      <c r="O11">
+        <v>-2.1440000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="U11">
+        <v>6.9</v>
+      </c>
+      <c r="W11">
+        <v>-2.66</v>
+      </c>
+      <c r="X11">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="Y11">
+        <v>-4.32</v>
+      </c>
+      <c r="AB11">
+        <v>-2.0270000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.254</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF11">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="AH11">
+        <v>-4.8710000000000004</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK11">
+        <v>-5.423</v>
+      </c>
+      <c r="AL11">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AP11">
+        <v>-0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1986</v>
+      </c>
+      <c r="B12">
+        <v>-1.925</v>
+      </c>
+      <c r="C12">
+        <v>-1.4570000000000001</v>
+      </c>
+      <c r="D12">
+        <v>-4.3250000000000002</v>
+      </c>
+      <c r="E12">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="K12">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="L12" t="s">
+        <v>545</v>
+      </c>
+      <c r="M12">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="N12">
+        <v>-1.607</v>
+      </c>
+      <c r="O12">
+        <v>-2.2629999999999999</v>
+      </c>
+      <c r="P12">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="U12">
+        <v>5.9589999999999996</v>
+      </c>
+      <c r="W12">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="X12">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="Y12">
+        <v>-2.806</v>
+      </c>
+      <c r="AB12">
+        <v>1.054</v>
+      </c>
+      <c r="AD12">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF12">
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="AH12">
+        <v>-5.3319999999999999</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK12">
+        <v>-5.2990000000000004</v>
+      </c>
+      <c r="AL12">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="AO12">
+        <v>-0.3</v>
+      </c>
+      <c r="AP12">
+        <v>-0.997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1987</v>
+      </c>
+      <c r="B13">
+        <v>-1.0640000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D13">
+        <v>-4.1760000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="K13">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L13" t="s">
+        <v>545</v>
+      </c>
+      <c r="M13">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="N13">
+        <v>-1.6160000000000001</v>
+      </c>
+      <c r="O13">
+        <v>-3.4220000000000002</v>
+      </c>
+      <c r="P13">
+        <v>-1.1439999999999999</v>
+      </c>
+      <c r="U13">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="W13">
+        <v>-1.96</v>
+      </c>
+      <c r="X13">
+        <v>4.3140000000000001</v>
+      </c>
+      <c r="Y13">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="AD13">
+        <v>-1.002</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF13">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="AH13">
+        <v>-2.0289999999999999</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK13">
+        <v>-2.7570000000000001</v>
+      </c>
+      <c r="AL13">
+        <v>1.702</v>
+      </c>
+      <c r="AO13">
+        <v>1.327</v>
+      </c>
+      <c r="AP13">
+        <v>-0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1988</v>
+      </c>
+      <c r="B14">
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="C14">
+        <v>-1.3660000000000001</v>
+      </c>
+      <c r="D14">
+        <v>-2.024</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="K14">
+        <v>0.125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>545</v>
+      </c>
+      <c r="M14">
+        <v>5.468</v>
+      </c>
+      <c r="N14">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O14">
+        <v>-2.536</v>
+      </c>
+      <c r="P14">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="U14">
+        <v>3.403</v>
+      </c>
+      <c r="W14">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="X14">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="Y14">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>1.724</v>
+      </c>
+      <c r="AD14">
+        <v>-1.331</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF14">
+        <v>0.435</v>
+      </c>
+      <c r="AH14">
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK14">
+        <v>-0.53600000000000003</v>
+      </c>
+      <c r="AL14">
+        <v>2.399</v>
+      </c>
+      <c r="AO14">
+        <v>2.331</v>
+      </c>
+      <c r="AP14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1989</v>
+      </c>
+      <c r="B15">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="C15">
+        <v>-0.222</v>
+      </c>
+      <c r="D15">
+        <v>-1.024</v>
+      </c>
+      <c r="E15">
+        <v>2.899</v>
+      </c>
+      <c r="K15">
+        <v>-0.88500000000000001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>545</v>
+      </c>
+      <c r="M15">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="N15">
+        <v>1.728</v>
+      </c>
+      <c r="O15">
+        <v>-1.5129999999999999</v>
+      </c>
+      <c r="P15">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="U15">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="W15">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="X15">
+        <v>7.1310000000000002</v>
+      </c>
+      <c r="Y15">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="AB15">
+        <v>5.601</v>
+      </c>
+      <c r="AD15">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF15">
+        <v>-1.4410000000000001</v>
+      </c>
+      <c r="AH15">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK15">
+        <v>1.504</v>
+      </c>
+      <c r="AL15">
+        <v>3.2669999999999999</v>
+      </c>
+      <c r="AO15">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="AP15">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1990</v>
+      </c>
+      <c r="B16">
+        <v>0.623</v>
+      </c>
+      <c r="C16">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D16">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="E16">
+        <v>1.258</v>
+      </c>
+      <c r="K16">
+        <v>-1.135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>545</v>
+      </c>
+      <c r="M16">
+        <v>5.1159999999999997</v>
+      </c>
+      <c r="N16">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="O16">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="P16">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="U16">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="W16">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="X16">
+        <v>7.9219999999999997</v>
+      </c>
+      <c r="Y16">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AB16">
+        <v>5.319</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF16">
+        <v>-0.97</v>
+      </c>
+      <c r="AH16">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK16">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="AL16">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="AO16">
+        <v>1.56</v>
+      </c>
+      <c r="AP16">
+        <v>-0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1991</v>
+      </c>
+      <c r="B17">
+        <v>-2.8370000000000002</v>
+      </c>
+      <c r="C17">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="D17">
+        <v>-0.83799999999999997</v>
+      </c>
+      <c r="E17">
+        <v>-1.5069999999999999</v>
+      </c>
+      <c r="K17">
+        <v>-1.5309999999999999</v>
+      </c>
+      <c r="L17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M17">
+        <v>-1.679</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>2.6030000000000002</v>
+      </c>
+      <c r="P17">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="U17">
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="W17">
+        <v>0.161</v>
+      </c>
+      <c r="X17">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="Y17">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="AB17">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="AD17">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF17">
+        <v>-1.615</v>
+      </c>
+      <c r="AH17">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK17">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="AL17">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="AO17">
+        <v>-1.2729999999999999</v>
+      </c>
+      <c r="AP17">
+        <v>-2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1992</v>
+      </c>
+      <c r="B18">
+        <v>-3.0990000000000002</v>
+      </c>
+      <c r="C18">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="D18">
+        <v>-1.514</v>
+      </c>
+      <c r="E18">
+        <v>-2.2269999999999999</v>
+      </c>
+      <c r="K18">
+        <v>-1.5269999999999999</v>
+      </c>
+      <c r="L18" t="s">
+        <v>545</v>
+      </c>
+      <c r="M18">
+        <v>-5.2</v>
+      </c>
+      <c r="N18">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="O18">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="P18">
+        <v>3.698</v>
+      </c>
+      <c r="U18">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="W18">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="X18">
+        <v>5.7789999999999999</v>
+      </c>
+      <c r="Y18">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>5.093</v>
+      </c>
+      <c r="AD18">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF18">
+        <v>-1.524</v>
+      </c>
+      <c r="AH18">
+        <v>4.3689999999999998</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK18">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AL18">
+        <v>-1.8340000000000001</v>
+      </c>
+      <c r="AO18">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="AP18">
+        <v>-2.0190000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1993</v>
+      </c>
+      <c r="B19">
+        <v>-2.2629999999999999</v>
+      </c>
+      <c r="C19">
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="D19">
+        <v>-4.4130000000000003</v>
+      </c>
+      <c r="E19">
+        <v>-1.768</v>
+      </c>
+      <c r="K19">
+        <v>-3.577</v>
+      </c>
+      <c r="L19" t="s">
+        <v>545</v>
+      </c>
+      <c r="M19">
+        <v>-6.6280000000000001</v>
+      </c>
+      <c r="N19">
+        <v>-1.8839999999999999</v>
+      </c>
+      <c r="O19">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="P19">
+        <v>0.878</v>
+      </c>
+      <c r="U19">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="W19">
+        <v>-3.03</v>
+      </c>
+      <c r="X19">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="Y19">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="AB19">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="AD19">
+        <v>-1.64</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF19">
+        <v>-1.506</v>
+      </c>
+      <c r="AH19">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AI19">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="AK19">
+        <v>-3.4569999999999999</v>
+      </c>
+      <c r="AL19">
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="AO19">
+        <v>-2.1309999999999998</v>
+      </c>
+      <c r="AP19">
+        <v>-1.9259999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1994</v>
+      </c>
+      <c r="B20">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="C20">
+        <v>-0.78600000000000003</v>
+      </c>
+      <c r="D20">
+        <v>-3.5609999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K20">
+        <v>-0.88900000000000001</v>
+      </c>
+      <c r="L20" t="s">
+        <v>545</v>
+      </c>
+      <c r="M20">
+        <v>-4.2249999999999996</v>
+      </c>
+      <c r="N20">
+        <v>-1.5549999999999999</v>
+      </c>
+      <c r="O20">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="P20">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="U20">
+        <v>-1.841</v>
+      </c>
+      <c r="W20">
+        <v>-2.62</v>
+      </c>
+      <c r="X20">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AB20">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="AD20">
+        <v>-1.59</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF20">
+        <v>-0.93200000000000005</v>
+      </c>
+      <c r="AH20">
+        <v>-1.54</v>
+      </c>
+      <c r="AI20">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="AK20">
+        <v>-3.7069999999999999</v>
+      </c>
+      <c r="AL20">
+        <v>-3.66</v>
+      </c>
+      <c r="AO20">
+        <v>-0.94599999999999995</v>
+      </c>
+      <c r="AP20">
+        <v>-0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1995</v>
+      </c>
+      <c r="B21">
+        <v>-1.1519999999999999</v>
+      </c>
+      <c r="C21">
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="D21">
+        <v>-0.88400000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>-0.433</v>
+      </c>
+      <c r="L21">
+        <v>-0.85499999999999998</v>
+      </c>
+      <c r="M21">
+        <v>-2.8940000000000001</v>
+      </c>
+      <c r="N21">
+        <v>-1.3720000000000001</v>
+      </c>
+      <c r="O21">
+        <v>-0.68</v>
+      </c>
+      <c r="P21">
+        <v>1.002</v>
+      </c>
+      <c r="U21">
+        <v>-6.7439999999999998</v>
+      </c>
+      <c r="W21">
+        <v>-2.09</v>
+      </c>
+      <c r="X21">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="Y21">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="AB21">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="AD21">
+        <v>-1.87</v>
+      </c>
+      <c r="AE21">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="AF21">
+        <v>-0.82599999999999996</v>
+      </c>
+      <c r="AH21">
+        <v>-2.387</v>
+      </c>
+      <c r="AI21">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="AK21">
+        <v>-2.2789999999999999</v>
+      </c>
+      <c r="AL21">
+        <v>-1.6080000000000001</v>
+      </c>
+      <c r="AO21">
+        <v>-1.4179999999999999</v>
+      </c>
+      <c r="AP21">
+        <v>-0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1996</v>
+      </c>
+      <c r="B22">
+        <v>-0.71699999999999997</v>
+      </c>
+      <c r="C22">
+        <v>-0.67700000000000005</v>
+      </c>
+      <c r="D22">
+        <v>-1.6930000000000001</v>
+      </c>
+      <c r="E22">
+        <v>-1.3540000000000001</v>
+      </c>
+      <c r="K22">
+        <v>-0.123</v>
+      </c>
+      <c r="L22">
+        <v>-1.9510000000000001</v>
+      </c>
+      <c r="M22">
+        <v>-2.258</v>
+      </c>
+      <c r="N22">
+        <v>-2.0680000000000001</v>
+      </c>
+      <c r="O22">
+        <v>-1.258</v>
+      </c>
+      <c r="P22">
+        <v>1.018</v>
+      </c>
+      <c r="U22">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="W22">
+        <v>-2.44</v>
+      </c>
+      <c r="X22">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="Y22">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>-4.6070000000000002</v>
+      </c>
+      <c r="AD22">
+        <v>-1.51</v>
+      </c>
+      <c r="AE22">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AF22">
+        <v>-0.28199999999999997</v>
+      </c>
+      <c r="AH22">
+        <v>-1.5580000000000001</v>
+      </c>
+      <c r="AI22">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="AK22">
+        <v>-3.867</v>
+      </c>
+      <c r="AL22">
+        <v>-2.218</v>
+      </c>
+      <c r="AO22">
+        <v>-2.1379999999999999</v>
+      </c>
+      <c r="AP22">
+        <v>-0.498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1997</v>
+      </c>
+      <c r="B23">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="C23">
+        <v>-0.38600000000000001</v>
+      </c>
+      <c r="D23">
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="E23">
+        <v>-0.63400000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.51</v>
+      </c>
+      <c r="L23">
+        <v>3.883</v>
+      </c>
+      <c r="M23">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="N23">
+        <v>-2.0539999999999998</v>
+      </c>
+      <c r="O23">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="P23">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="U23">
+        <v>-2.242</v>
+      </c>
+      <c r="W23">
+        <v>-2.25</v>
+      </c>
+      <c r="X23">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="Y23">
+        <v>3.1419999999999999</v>
+      </c>
+      <c r="AB23">
+        <v>-4.8140000000000001</v>
+      </c>
+      <c r="AD23">
+        <v>-0.51</v>
+      </c>
+      <c r="AE23">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AF23">
+        <v>1.119</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AI23">
+        <v>6.5289999999999999</v>
+      </c>
+      <c r="AK23">
+        <v>-2.9359999999999999</v>
+      </c>
+      <c r="AL23">
+        <v>-1.7070000000000001</v>
+      </c>
+      <c r="AO23">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="AP23">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1998</v>
+      </c>
+      <c r="B24">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="C24">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D24">
+        <v>-0.73399999999999999</v>
+      </c>
+      <c r="E24">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.24</v>
+      </c>
+      <c r="L24">
+        <v>1.071</v>
+      </c>
+      <c r="M24">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="N24">
+        <v>-0.94</v>
+      </c>
+      <c r="O24">
+        <v>-0.51200000000000001</v>
+      </c>
+      <c r="P24">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="W24">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="X24">
+        <v>1.502</v>
+      </c>
+      <c r="Y24">
+        <v>-7.1580000000000004</v>
+      </c>
+      <c r="AB24">
+        <v>-4.6070000000000002</v>
+      </c>
+      <c r="AD24">
+        <v>0.71</v>
+      </c>
+      <c r="AE24">
+        <v>-2.415</v>
+      </c>
+      <c r="AF24">
+        <v>1.532</v>
+      </c>
+      <c r="AH24">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="AI24">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="AK24">
+        <v>-1.66</v>
+      </c>
+      <c r="AL24">
+        <v>-0.60599999999999998</v>
+      </c>
+      <c r="AO24">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="AP24">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1999</v>
+      </c>
+      <c r="B25">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="C25">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E25">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L25">
+        <v>-4.758</v>
+      </c>
+      <c r="M25">
+        <v>1.637</v>
+      </c>
+      <c r="N25">
+        <v>-0.153</v>
+      </c>
+      <c r="O25">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="P25">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="U25">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="W25">
+        <v>-2.16</v>
+      </c>
+      <c r="X25">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="AB25">
+        <v>-2.5489999999999999</v>
+      </c>
+      <c r="AD25">
+        <v>2.27</v>
+      </c>
+      <c r="AE25">
+        <v>-1.056</v>
+      </c>
+      <c r="AF25">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AH25">
+        <v>2.9769999999999999</v>
+      </c>
+      <c r="AI25">
+        <v>0.191</v>
+      </c>
+      <c r="AK25">
+        <v>-0.63</v>
+      </c>
+      <c r="AL25">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AO25">
+        <v>0.114</v>
+      </c>
+      <c r="AP25">
+        <v>1.7809999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C26">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="D26">
+        <v>1.595</v>
+      </c>
+      <c r="E26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K26">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="L26">
+        <v>-0.95099999999999996</v>
+      </c>
+      <c r="M26">
+        <v>3.0259999999999998</v>
+      </c>
+      <c r="N26">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="O26">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="P26">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="U26">
+        <v>2.907</v>
+      </c>
+      <c r="W26">
+        <v>-0.108</v>
+      </c>
+      <c r="X26">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="Y26">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AB26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD26">
+        <v>3.27</v>
+      </c>
+      <c r="AE26">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AF26">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="AH26">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="AI26">
+        <v>-2.218</v>
+      </c>
+      <c r="AK26">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="AL26">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="AO26">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AP26">
+        <v>2.0579999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2001</v>
+      </c>
+      <c r="B27">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.441</v>
+      </c>
+      <c r="E27">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K27">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="L27">
+        <v>-0.89700000000000002</v>
+      </c>
+      <c r="M27">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="N27">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="O27">
+        <v>1.571</v>
+      </c>
+      <c r="P27">
+        <v>1.827</v>
+      </c>
+      <c r="U27">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="W27">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="X27">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="Y27">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="AB27">
+        <v>-0.215</v>
+      </c>
+      <c r="AD27">
+        <v>2.82</v>
+      </c>
+      <c r="AE27">
+        <v>-0.59199999999999997</v>
+      </c>
+      <c r="AF27">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AH27">
+        <v>3.5739999999999998</v>
+      </c>
+      <c r="AI27">
+        <v>-3.0579999999999998</v>
+      </c>
+      <c r="AK27">
+        <v>1.385</v>
+      </c>
+      <c r="AL27">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AO27">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="AP27">
+        <v>-0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D28">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="K28">
+        <v>-0.107</v>
+      </c>
+      <c r="L28">
+        <v>-0.66200000000000003</v>
+      </c>
+      <c r="M28">
+        <v>0.62</v>
+      </c>
+      <c r="N28">
+        <v>0.376</v>
+      </c>
+      <c r="O28">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="P28">
+        <v>1.569</v>
+      </c>
+      <c r="U28">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="W28">
+        <v>-0.4</v>
+      </c>
+      <c r="X28">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="Y28">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="AB28">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AD28">
+        <v>0.67</v>
+      </c>
+      <c r="AE28">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="AF28">
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="AH28">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="AI28">
+        <v>-2.8490000000000002</v>
+      </c>
+      <c r="AK28">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="AL28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AO28">
+        <v>0.185</v>
+      </c>
+      <c r="AP28">
+        <v>-2.1150000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29">
+        <v>-0.25600000000000001</v>
+      </c>
+      <c r="C29">
+        <v>-1.2030000000000001</v>
+      </c>
+      <c r="D29">
+        <v>-1.276</v>
+      </c>
+      <c r="E29">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="K29">
+        <v>-1.321</v>
+      </c>
+      <c r="L29">
+        <v>0.249</v>
+      </c>
+      <c r="M29">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="N29">
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="O29">
+        <v>-1.39</v>
+      </c>
+      <c r="P29">
+        <v>2.492</v>
+      </c>
+      <c r="U29">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="W29">
+        <v>-1.08</v>
+      </c>
+      <c r="X29">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="Y29">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="AB29">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="AD29">
+        <v>-1.25</v>
+      </c>
+      <c r="AE29">
+        <v>1.454</v>
+      </c>
+      <c r="AF29">
+        <v>-1.952</v>
+      </c>
+      <c r="AH29">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="AI29">
+        <v>-1.82</v>
+      </c>
+      <c r="AK29">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="AL29">
+        <v>-0.313</v>
+      </c>
+      <c r="AO29">
+        <v>0.998</v>
+      </c>
+      <c r="AP29">
+        <v>-2.383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C30">
+        <v>-0.76</v>
+      </c>
+      <c r="D30">
+        <v>-0.129</v>
+      </c>
+      <c r="E30">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="K30">
+        <v>-0.188</v>
+      </c>
+      <c r="L30">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="M30">
+        <v>1.881</v>
+      </c>
+      <c r="N30">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="O30">
+        <v>-1.306</v>
+      </c>
+      <c r="P30">
+        <v>3.524</v>
+      </c>
+      <c r="U30">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="W30">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="X30">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="Y30">
+        <v>0.121</v>
+      </c>
+      <c r="AB30">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AD30">
+        <v>-1.3</v>
+      </c>
+      <c r="AE30">
+        <v>2.802</v>
+      </c>
+      <c r="AF30">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="AH30">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="AI30">
+        <v>-1.4870000000000001</v>
+      </c>
+      <c r="AK30">
+        <v>1.948</v>
+      </c>
+      <c r="AL30">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AO30">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AP30">
+        <v>-1.468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C31">
+        <v>-0.52400000000000002</v>
+      </c>
+      <c r="D31">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="L31">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="M31">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="N31">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="O31">
+        <v>-1.804</v>
+      </c>
+      <c r="P31">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="U31">
+        <v>2.512</v>
+      </c>
+      <c r="W31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X31">
+        <v>1.073</v>
+      </c>
+      <c r="Y31">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AB31">
+        <v>-1.1240000000000001</v>
+      </c>
+      <c r="AD31">
+        <v>-1.17</v>
+      </c>
+      <c r="AE31">
+        <v>2.81</v>
+      </c>
+      <c r="AF31">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AH31">
+        <v>-0.64800000000000002</v>
+      </c>
+      <c r="AI31">
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="AK31">
+        <v>2.899</v>
+      </c>
+      <c r="AL31">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AO31">
+        <v>1.784</v>
+      </c>
+      <c r="AP31">
+        <v>-0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D32">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E32">
+        <v>1.514</v>
+      </c>
+      <c r="K32">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="L32">
+        <v>9.0470000000000006</v>
+      </c>
+      <c r="M32">
+        <v>3.42</v>
+      </c>
+      <c r="N32">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O32">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="P32">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="U32">
+        <v>4.4139999999999997</v>
+      </c>
+      <c r="W32">
+        <v>1.48</v>
+      </c>
+      <c r="X32">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="Y32">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AB32">
+        <v>-1.165</v>
+      </c>
+      <c r="AD32">
+        <v>0.37</v>
+      </c>
+      <c r="AE32">
+        <v>2.806</v>
+      </c>
+      <c r="AF32">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="AH32">
+        <v>-0.192</v>
+      </c>
+      <c r="AI32">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="AK32">
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="AL32">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="AO32">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="AP32">
+        <v>-0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2007</v>
+      </c>
+      <c r="B33">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C33">
+        <v>2.61</v>
+      </c>
+      <c r="D33">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="E33">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="K33">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="L33">
+        <v>11.840999999999999</v>
+      </c>
+      <c r="M33">
+        <v>6.4329999999999998</v>
+      </c>
+      <c r="N33">
+        <v>1.99</v>
+      </c>
+      <c r="O33">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="P33">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="U33">
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="W33">
+        <v>2.69</v>
+      </c>
+      <c r="X33">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="AB33">
+        <v>2.855</v>
+      </c>
+      <c r="AD33">
+        <v>2.4</v>
+      </c>
+      <c r="AE33">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="AF33">
+        <v>3.423</v>
+      </c>
+      <c r="AH33">
+        <v>1.264</v>
+      </c>
+      <c r="AI33">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="AK33">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="AL33">
+        <v>4.4459999999999997</v>
+      </c>
+      <c r="AO33">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="AP33">
+        <v>-0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C34">
+        <v>2.73</v>
+      </c>
+      <c r="D34">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E34">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="K34">
+        <v>2.371</v>
+      </c>
+      <c r="L34">
+        <v>3.629</v>
+      </c>
+      <c r="M34">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="N34">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="O34">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="P34">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="U34">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="W34">
+        <v>1.78</v>
+      </c>
+      <c r="X34">
+        <v>-0.84499999999999997</v>
+      </c>
+      <c r="Y34">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AB34">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="AD34">
+        <v>3.27</v>
+      </c>
+      <c r="AE34">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="AF34">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="AH34">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AI34">
+        <v>6.9509999999999996</v>
+      </c>
+      <c r="AK34">
+        <v>3.2719999999999998</v>
+      </c>
+      <c r="AL34">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="AO34">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="AP34">
+        <v>-2.734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2009</v>
+      </c>
+      <c r="B35">
+        <v>-0.42799999999999999</v>
+      </c>
+      <c r="C35">
+        <v>-1.298</v>
+      </c>
+      <c r="D35">
+        <v>-2.0670000000000002</v>
+      </c>
+      <c r="E35">
+        <v>-3.2109999999999999</v>
+      </c>
+      <c r="K35">
+        <v>-3.11</v>
+      </c>
+      <c r="L35">
+        <v>-10.984999999999999</v>
+      </c>
+      <c r="M35">
+        <v>-3.0720000000000001</v>
+      </c>
+      <c r="N35">
+        <v>-2.524</v>
+      </c>
+      <c r="O35">
+        <v>-3.8450000000000002</v>
+      </c>
+      <c r="P35">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="U35">
+        <v>-3.7789999999999999</v>
+      </c>
+      <c r="W35">
+        <v>-3.17</v>
+      </c>
+      <c r="X35">
+        <v>-6.8810000000000002</v>
+      </c>
+      <c r="Y35">
+        <v>-2.2109999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>-2.9390000000000001</v>
+      </c>
+      <c r="AD35">
+        <v>-1.2</v>
+      </c>
+      <c r="AE35">
+        <v>-1.9770000000000001</v>
+      </c>
+      <c r="AF35">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="AH35">
+        <v>-2.9820000000000002</v>
+      </c>
+      <c r="AI35">
+        <v>-3.1949999999999998</v>
+      </c>
+      <c r="AK35">
+        <v>-2.1259999999999999</v>
+      </c>
+      <c r="AL35">
+        <v>-4.4790000000000001</v>
+      </c>
+      <c r="AO35">
+        <v>-2.9969999999999999</v>
+      </c>
+      <c r="AP35">
+        <v>-7.2359999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36">
+        <v>-0.88700000000000001</v>
+      </c>
+      <c r="C36">
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="D36">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="E36">
+        <v>-1.754</v>
+      </c>
+      <c r="K36">
+        <v>-1.839</v>
+      </c>
+      <c r="L36">
+        <v>-8.2759999999999998</v>
+      </c>
+      <c r="M36">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="N36">
+        <v>-1.7629999999999999</v>
+      </c>
+      <c r="O36">
+        <v>-0.97799999999999998</v>
+      </c>
+      <c r="P36">
+        <v>-4.8650000000000002</v>
+      </c>
+      <c r="U36">
+        <v>-3.8759999999999999</v>
+      </c>
+      <c r="W36">
+        <v>-1.31</v>
+      </c>
+      <c r="X36">
+        <v>-3.3820000000000001</v>
+      </c>
+      <c r="Y36">
+        <v>0.54</v>
+      </c>
+      <c r="AB36">
+        <v>0.62</v>
+      </c>
+      <c r="AD36">
+        <v>-0.74</v>
+      </c>
+      <c r="AE36">
+        <v>-2.2770000000000001</v>
+      </c>
+      <c r="AF36">
+        <v>-1.0760000000000001</v>
+      </c>
+      <c r="AH36">
+        <v>-1.579</v>
+      </c>
+      <c r="AI36">
+        <v>-1.859</v>
+      </c>
+      <c r="AK36">
+        <v>-2.9369999999999998</v>
+      </c>
+      <c r="AL36">
+        <v>-1.05</v>
+      </c>
+      <c r="AO36">
+        <v>-2.0329999999999999</v>
+      </c>
+      <c r="AP36">
+        <v>-6.5140000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2011</v>
+      </c>
+      <c r="B37">
+        <v>-0.94699999999999995</v>
+      </c>
+      <c r="C37">
+        <v>1.087</v>
+      </c>
+      <c r="D37">
+        <v>-0.316</v>
+      </c>
+      <c r="E37">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="K37">
+        <v>-1.236</v>
+      </c>
+      <c r="L37">
+        <v>-2.7309999999999999</v>
+      </c>
+      <c r="M37">
+        <v>1.79</v>
+      </c>
+      <c r="N37">
+        <v>-0.72799999999999998</v>
+      </c>
+      <c r="O37">
+        <v>1.357</v>
+      </c>
+      <c r="P37">
+        <v>-12.163</v>
+      </c>
+      <c r="U37">
+        <v>-4.2</v>
+      </c>
+      <c r="W37">
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="X37">
+        <v>-3.923</v>
+      </c>
+      <c r="Y37">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AB37">
+        <v>1.296</v>
+      </c>
+      <c r="AD37">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE37">
+        <v>-2.5510000000000002</v>
+      </c>
+      <c r="AF37">
+        <v>-1.17</v>
+      </c>
+      <c r="AH37">
+        <v>-3.4060000000000001</v>
+      </c>
+      <c r="AI37">
+        <v>-2.31</v>
+      </c>
+      <c r="AK37">
+        <v>-4.2510000000000003</v>
+      </c>
+      <c r="AL37">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AO37">
+        <v>-2.0209999999999999</v>
+      </c>
+      <c r="AP37">
+        <v>-6.5750000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38">
+        <v>-0.155</v>
+      </c>
+      <c r="C38">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D38">
+        <v>-0.93100000000000005</v>
+      </c>
+      <c r="E38">
+        <v>-0.40699999999999997</v>
+      </c>
+      <c r="K38">
+        <v>-1.8919999999999999</v>
+      </c>
+      <c r="L38">
+        <v>-1.58</v>
+      </c>
+      <c r="M38">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="N38">
+        <v>-1.452</v>
+      </c>
+      <c r="O38">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="P38">
+        <v>-15.779</v>
+      </c>
+      <c r="U38">
+        <v>-4.9480000000000004</v>
+      </c>
+      <c r="W38">
+        <v>-2.79</v>
+      </c>
+      <c r="X38">
+        <v>-3.2149999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="AB38">
+        <v>-0.93700000000000006</v>
+      </c>
+      <c r="AD38">
+        <v>-1.84</v>
+      </c>
+      <c r="AE38">
+        <v>-2.395</v>
+      </c>
+      <c r="AF38">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AH38">
+        <v>-7.2270000000000003</v>
+      </c>
+      <c r="AI38">
+        <v>-2.5009999999999999</v>
+      </c>
+      <c r="AK38">
+        <v>-7.5529999999999999</v>
+      </c>
+      <c r="AL38">
+        <v>-1.304</v>
+      </c>
+      <c r="AO38">
+        <v>-2.0760000000000001</v>
+      </c>
+      <c r="AP38">
+        <v>-5.6989999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2013</v>
+      </c>
+      <c r="B39">
+        <v>-0.77900000000000003</v>
+      </c>
+      <c r="C39">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="D39">
+        <v>-1.827</v>
+      </c>
+      <c r="E39">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K39">
+        <v>-2.0779999999999998</v>
+      </c>
+      <c r="L39">
+        <v>-2.3239999999999998</v>
+      </c>
+      <c r="M39">
+        <v>-1.954</v>
+      </c>
+      <c r="N39">
+        <v>-1.9750000000000001</v>
+      </c>
+      <c r="O39">
+        <v>-0.81299999999999994</v>
+      </c>
+      <c r="P39">
+        <v>-15.644</v>
+      </c>
+      <c r="U39">
+        <v>-3.165</v>
+      </c>
+      <c r="W39">
+        <v>-4.07</v>
+      </c>
+      <c r="X39">
+        <v>-1.895</v>
+      </c>
+      <c r="Y39">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="AB39">
+        <v>-0.29099999999999998</v>
+      </c>
+      <c r="AD39">
+        <v>-2.83</v>
+      </c>
+      <c r="AE39">
+        <v>-2.5310000000000001</v>
+      </c>
+      <c r="AF39">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AH39">
+        <v>-7.8</v>
+      </c>
+      <c r="AI39">
+        <v>-2.8679999999999999</v>
+      </c>
+      <c r="AK39">
+        <v>-8.9499999999999993</v>
+      </c>
+      <c r="AL39">
+        <v>-2.0459999999999998</v>
+      </c>
+      <c r="AO39">
+        <v>-1.5720000000000001</v>
+      </c>
+      <c r="AP39">
+        <v>-5.0519999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40">
+        <v>-0.92200000000000004</v>
+      </c>
+      <c r="C40">
+        <v>-0.96299999999999997</v>
+      </c>
+      <c r="D40">
+        <v>-1.714</v>
+      </c>
+      <c r="E40">
+        <v>1.018</v>
+      </c>
+      <c r="K40">
+        <v>-1.821</v>
+      </c>
+      <c r="L40">
+        <v>-1.6739999999999999</v>
+      </c>
+      <c r="M40">
+        <v>-3.0230000000000001</v>
+      </c>
+      <c r="N40">
+        <v>-2.1920000000000002</v>
+      </c>
+      <c r="O40">
+        <v>-0.34</v>
+      </c>
+      <c r="P40">
+        <v>-13.06</v>
+      </c>
+      <c r="U40">
+        <v>-1.2</v>
+      </c>
+      <c r="W40">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="X40">
+        <v>-2.29</v>
+      </c>
+      <c r="Y40">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="AB40">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AD40">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AE40">
+        <v>-1.5840000000000001</v>
+      </c>
+      <c r="AF40">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AH40">
+        <v>-6.8330000000000002</v>
+      </c>
+      <c r="AI40">
+        <v>-1.5069999999999999</v>
+      </c>
+      <c r="AK40">
+        <v>-7.7880000000000003</v>
+      </c>
+      <c r="AL40">
+        <v>-1.1870000000000001</v>
+      </c>
+      <c r="AO40">
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="AP40">
+        <v>-3.9710000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41">
+        <v>-1.1659999999999999</v>
+      </c>
+      <c r="C41">
+        <v>-0.92600000000000005</v>
+      </c>
+      <c r="D41">
+        <v>-1.1930000000000001</v>
+      </c>
+      <c r="E41">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="K41">
+        <v>-1.056</v>
+      </c>
+      <c r="L41">
+        <v>-2.0630000000000002</v>
+      </c>
+      <c r="M41">
+        <v>-3.7629999999999999</v>
+      </c>
+      <c r="N41">
+        <v>-2.3929999999999998</v>
+      </c>
+      <c r="O41">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="P41">
+        <v>-11.962</v>
+      </c>
+      <c r="U41">
+        <v>0.5</v>
+      </c>
+      <c r="W41">
+        <v>-3.43</v>
+      </c>
+      <c r="X41">
+        <v>-1.5489999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="AB41">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AD41">
+        <v>-1.84</v>
+      </c>
+      <c r="AE41">
+        <v>-0.88600000000000001</v>
+      </c>
+      <c r="AF41">
+        <v>-0.32300000000000001</v>
+      </c>
+      <c r="AH41">
+        <v>-5.141</v>
+      </c>
+      <c r="AI41">
+        <v>1.19</v>
+      </c>
+      <c r="AK41">
+        <v>-4.7830000000000004</v>
+      </c>
+      <c r="AL41">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AO41">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AP41">
+        <v>-2.544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2016</v>
+      </c>
+      <c r="B42">
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="C42">
+        <v>-0.499</v>
+      </c>
+      <c r="D42">
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="E42">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="K42">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="L42">
+        <v>-1.4</v>
+      </c>
+      <c r="M42">
+        <v>-2.4350000000000001</v>
+      </c>
+      <c r="N42">
+        <v>-2.621</v>
+      </c>
+      <c r="O42">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P42">
+        <v>-10.71</v>
+      </c>
+      <c r="U42">
+        <v>1.9</v>
+      </c>
+      <c r="W42">
+        <v>-2.6139999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-1.4550000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>-0.83</v>
+      </c>
+      <c r="AB42">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="AD42">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AE42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AF42">
+        <v>-0.95899999999999996</v>
+      </c>
+      <c r="AH42">
+        <v>-3.577</v>
+      </c>
+      <c r="AI42">
+        <v>1.27</v>
+      </c>
+      <c r="AK42">
+        <v>-2.7759999999999998</v>
+      </c>
+      <c r="AL42">
+        <v>0.308</v>
+      </c>
+      <c r="AO42">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AP42">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2017</v>
+      </c>
+      <c r="B43">
+        <v>-0.75800000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D43">
+        <v>-1.0580000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.374</v>
+      </c>
+      <c r="K43">
+        <v>1.427</v>
+      </c>
+      <c r="L43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M43">
+        <v>-0.88600000000000001</v>
+      </c>
+      <c r="N43">
+        <v>-1.528</v>
+      </c>
+      <c r="O43">
+        <v>0.998</v>
+      </c>
+      <c r="P43">
+        <v>-8.4179999999999993</v>
+      </c>
+      <c r="U43">
+        <v>1.472</v>
+      </c>
+      <c r="W43">
+        <v>-1.62</v>
+      </c>
+      <c r="X43">
+        <v>-0.53400000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>-0.51800000000000002</v>
+      </c>
+      <c r="AB43">
+        <v>-0.49</v>
+      </c>
+      <c r="AD43">
+        <v>-0.05</v>
+      </c>
+      <c r="AE43">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AF43">
+        <v>-0.56799999999999995</v>
+      </c>
+      <c r="AH43">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="AI43">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="AK43">
+        <v>-1.075</v>
+      </c>
+      <c r="AL43">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="AO43">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AP43">
+        <v>-1.3169999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="C44">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="D44">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="K44">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="L44">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="M44">
+        <v>-1.0429999999999999</v>
+      </c>
+      <c r="N44">
+        <v>-0.78300000000000003</v>
+      </c>
+      <c r="O44">
+        <v>0.82</v>
+      </c>
+      <c r="P44">
+        <v>-5.9290000000000003</v>
+      </c>
+      <c r="U44">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="W44">
+        <v>-1.133</v>
+      </c>
+      <c r="X44">
+        <v>-0.90700000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>-0.316</v>
+      </c>
+      <c r="AB44">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AD44">
+        <v>0.7</v>
+      </c>
+      <c r="AE44">
+        <v>1.04</v>
+      </c>
+      <c r="AF44">
+        <v>-0.214</v>
+      </c>
+      <c r="AH44">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AI44">
+        <v>1.476</v>
+      </c>
+      <c r="AK44">
+        <v>-0.03</v>
+      </c>
+      <c r="AL44">
+        <v>1.86</v>
+      </c>
+      <c r="AO44">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AP44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45">
+        <v>-0.74199999999999999</v>
+      </c>
+      <c r="C45">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E45">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K45">
+        <v>1.804</v>
+      </c>
+      <c r="L45">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="M45">
+        <v>-1.0369999999999999</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="P45">
+        <v>-3.67</v>
+      </c>
+      <c r="U45">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="W45">
+        <v>-1.2729999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-1.5109999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="AB45">
+        <v>1.087</v>
+      </c>
+      <c r="AD45">
+        <v>0.6</v>
+      </c>
+      <c r="AE45">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AF45">
+        <v>0.2</v>
+      </c>
+      <c r="AH45">
+        <v>1.397</v>
+      </c>
+      <c r="AI45">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AK45">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AL45">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="AO45">
+        <v>0.106</v>
+      </c>
+      <c r="AP45">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2020</v>
+      </c>
+      <c r="B46">
+        <v>-4.2880000000000003</v>
+      </c>
+      <c r="C46">
+        <v>-1.2969999999999999</v>
+      </c>
+      <c r="D46">
+        <v>-3.548</v>
+      </c>
+      <c r="E46">
+        <v>-3.3540000000000001</v>
+      </c>
+      <c r="K46">
+        <v>-1.9179999999999999</v>
+      </c>
+      <c r="L46">
+        <v>-2.9660000000000002</v>
+      </c>
+      <c r="M46">
+        <v>-4.3120000000000003</v>
+      </c>
+      <c r="N46">
+        <v>-4.3239999999999998</v>
+      </c>
+      <c r="O46">
+        <v>-2.6040000000000001</v>
+      </c>
+      <c r="P46">
+        <v>-10.801</v>
+      </c>
+      <c r="U46">
+        <v>-2.29</v>
+      </c>
+      <c r="W46">
+        <v>-6.1360000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-2.7480000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>-2.8119999999999998</v>
+      </c>
+      <c r="AB46">
+        <v>-1.9570000000000001</v>
+      </c>
+      <c r="AD46">
+        <v>-1.8</v>
+      </c>
+      <c r="AE46">
+        <v>-2.9889999999999999</v>
+      </c>
+      <c r="AF46">
+        <v>-2.746</v>
+      </c>
+      <c r="AH46">
+        <v>-4.9779999999999998</v>
+      </c>
+      <c r="AI46">
+        <v>-4.5860000000000003</v>
+      </c>
+      <c r="AK46">
+        <v>-8.5120000000000005</v>
+      </c>
+      <c r="AL46">
+        <v>-1.133</v>
+      </c>
+      <c r="AO46">
+        <v>-4.2830000000000004</v>
+      </c>
+      <c r="AP46">
+        <v>-3.3170000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47">
+        <v>-2.258</v>
+      </c>
+      <c r="C47">
+        <v>-1.5049999999999999</v>
+      </c>
+      <c r="D47">
+        <v>-1.5960000000000001</v>
+      </c>
+      <c r="E47">
+        <v>-1.0429999999999999</v>
+      </c>
+      <c r="K47">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.74</v>
+      </c>
+      <c r="M47">
+        <v>-2.3159999999999998</v>
+      </c>
+      <c r="N47">
+        <v>-2.242</v>
+      </c>
+      <c r="O47">
+        <v>-2.0129999999999999</v>
+      </c>
+      <c r="P47">
+        <v>-5.585</v>
+      </c>
+      <c r="U47">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="W47">
+        <v>-4.9039999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-2.4169999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>-1.5389999999999999</v>
+      </c>
+      <c r="AB47">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="AD47">
+        <v>-1.5</v>
+      </c>
+      <c r="AE47">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AF47">
+        <v>-1.17</v>
+      </c>
+      <c r="AH47">
+        <v>-2.9780000000000002</v>
+      </c>
+      <c r="AI47">
+        <v>-2.5680000000000001</v>
+      </c>
+      <c r="AK47">
+        <v>-5.37</v>
+      </c>
+      <c r="AL47">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AO47">
+        <v>-2.13</v>
+      </c>
+      <c r="AP47">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2022</v>
+      </c>
+      <c r="B48">
+        <v>0.03</v>
+      </c>
+      <c r="C48">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="D48">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="E48">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="K48">
+        <v>0.314</v>
+      </c>
+      <c r="L48">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M48">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="N48">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="O48">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="P48">
+        <v>-2.0459999999999998</v>
+      </c>
+      <c r="U48">
+        <v>-0.192</v>
+      </c>
+      <c r="W48">
+        <v>-1.411</v>
+      </c>
+      <c r="X48">
+        <v>-0.8</v>
+      </c>
+      <c r="Y48">
+        <v>-0.7</v>
+      </c>
+      <c r="AB48">
+        <v>-0.109</v>
+      </c>
+      <c r="AD48">
+        <v>-0.8</v>
+      </c>
+      <c r="AE48">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="AF48">
+        <v>-0.16</v>
+      </c>
+      <c r="AH48">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="AI48">
+        <v>-0.91500000000000004</v>
+      </c>
+      <c r="AK48">
+        <v>-1.044</v>
+      </c>
+      <c r="AL48">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="AO48">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="AP48">
+        <v>3.3010000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Data IMF annuelles PIB output gap.xlsx
+++ b/Data IMF annuelles PIB output gap.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260391BE-C39E-43AC-A775-B06B231C3880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FBC0B1-58D4-4802-9CBB-C364F7E7DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data IMF annuelles PIB output g" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Output_gap" sheetId="2" r:id="rId1"/>
+    <sheet name="Data IMF annuelles PIB output g" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data IMF annuelles PIB output g'!$A$1:$AW$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data IMF annuelles PIB output g'!$A$1:$AW$83</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="2702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="2702">
   <si>
     <t>Country</t>
   </si>
@@ -8129,7 +8129,7 @@
     <t>International Monetary Fund, World Economic Outlook Database, October 2021</t>
   </si>
   <si>
-    <t>See notes for:  Gross domestic product, constant prices (National currency),</t>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -8969,6 +8969,3460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3F4298-0CA7-42A4-A63B-F2C6749E72FB}">
+  <dimension ref="A1:AP44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K1" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M1" t="s">
+        <v>719</v>
+      </c>
+      <c r="N1" t="s">
+        <v>805</v>
+      </c>
+      <c r="O1" t="s">
+        <v>892</v>
+      </c>
+      <c r="P1" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2">
+        <v>-0.89900000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D2">
+        <v>-0.318</v>
+      </c>
+      <c r="E2">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="L2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="O2">
+        <v>2.484</v>
+      </c>
+      <c r="P2">
+        <v>2.044</v>
+      </c>
+      <c r="U2">
+        <v>10.967000000000001</v>
+      </c>
+      <c r="W2" t="s">
+        <v>545</v>
+      </c>
+      <c r="X2">
+        <v>-1.4079999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>-5.6269999999999998</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD2">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF2">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>5.61</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK2">
+        <v>-2.66</v>
+      </c>
+      <c r="AL2">
+        <v>7.766</v>
+      </c>
+      <c r="AO2">
+        <v>-1.006</v>
+      </c>
+      <c r="AP2">
+        <v>-2.7519999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C3">
+        <v>-1.58</v>
+      </c>
+      <c r="D3">
+        <v>-2.153</v>
+      </c>
+      <c r="E3">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="K3">
+        <v>-2.7429999999999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>545</v>
+      </c>
+      <c r="M3">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="P3">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="U3">
+        <v>11.032</v>
+      </c>
+      <c r="W3">
+        <v>-0.92200000000000004</v>
+      </c>
+      <c r="X3">
+        <v>-0.12</v>
+      </c>
+      <c r="Y3">
+        <v>-7.1390000000000002</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD3">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF3">
+        <v>0.12</v>
+      </c>
+      <c r="AH3">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK3">
+        <v>-4.7380000000000004</v>
+      </c>
+      <c r="AL3">
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="AO3">
+        <v>-2.8180000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>-2.0449999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4">
+        <v>-1.7529999999999999</v>
+      </c>
+      <c r="C4">
+        <v>-1.476</v>
+      </c>
+      <c r="D4">
+        <v>-3.149</v>
+      </c>
+      <c r="E4">
+        <v>-3.5379999999999998</v>
+      </c>
+      <c r="K4">
+        <v>-1.76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>545</v>
+      </c>
+      <c r="M4">
+        <v>-0.56200000000000006</v>
+      </c>
+      <c r="N4">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="O4">
+        <v>-2.0670000000000002</v>
+      </c>
+      <c r="P4">
+        <v>-2.0179999999999998</v>
+      </c>
+      <c r="U4">
+        <v>10.891999999999999</v>
+      </c>
+      <c r="W4">
+        <v>-2.35</v>
+      </c>
+      <c r="X4">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="Y4">
+        <v>-7.5369999999999999</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD4">
+        <v>-2.444</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF4">
+        <v>-1.7649999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>3.8029999999999999</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK4">
+        <v>-5.2009999999999996</v>
+      </c>
+      <c r="AL4">
+        <v>-1.462</v>
+      </c>
+      <c r="AO4">
+        <v>-2.4980000000000002</v>
+      </c>
+      <c r="AP4">
+        <v>-6.5469999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="C5">
+        <v>-0.504</v>
+      </c>
+      <c r="D5">
+        <v>-4.4649999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-3.569</v>
+      </c>
+      <c r="K5">
+        <v>-1.7929999999999999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>545</v>
+      </c>
+      <c r="M5">
+        <v>-0.61799999999999999</v>
+      </c>
+      <c r="N5">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="O5">
+        <v>-2.556</v>
+      </c>
+      <c r="P5">
+        <v>-3.4409999999999998</v>
+      </c>
+      <c r="U5">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="W5">
+        <v>-3.552</v>
+      </c>
+      <c r="X5">
+        <v>1.179</v>
+      </c>
+      <c r="Y5">
+        <v>-3.847</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD5">
+        <v>-2.3889999999999998</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF5">
+        <v>-2.1859999999999999</v>
+      </c>
+      <c r="AH5">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK5">
+        <v>-5.4029999999999996</v>
+      </c>
+      <c r="AL5">
+        <v>-1.361</v>
+      </c>
+      <c r="AO5">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>-5.1580000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6">
+        <v>-2.6560000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-2.323</v>
+      </c>
+      <c r="D6">
+        <v>-3.8959999999999999</v>
+      </c>
+      <c r="E6">
+        <v>-0.84599999999999997</v>
+      </c>
+      <c r="K6">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>545</v>
+      </c>
+      <c r="M6">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="N6">
+        <v>-0.77200000000000002</v>
+      </c>
+      <c r="O6">
+        <v>-1.9690000000000001</v>
+      </c>
+      <c r="P6">
+        <v>-1.976</v>
+      </c>
+      <c r="U6">
+        <v>6.4640000000000004</v>
+      </c>
+      <c r="W6">
+        <v>-2.86</v>
+      </c>
+      <c r="X6">
+        <v>2.66</v>
+      </c>
+      <c r="Y6">
+        <v>-2.7890000000000001</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD6">
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF6">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>-3.0169999999999999</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK6">
+        <v>-5.6440000000000001</v>
+      </c>
+      <c r="AL6">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="AP6">
+        <v>-1.4590000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7">
+        <v>-1.355</v>
+      </c>
+      <c r="C7">
+        <v>-2.09</v>
+      </c>
+      <c r="D7">
+        <v>-4.125</v>
+      </c>
+      <c r="E7">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="K7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M7">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="N7">
+        <v>-1.3029999999999999</v>
+      </c>
+      <c r="O7">
+        <v>-2.1440000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="U7">
+        <v>6.9</v>
+      </c>
+      <c r="W7">
+        <v>-2.66</v>
+      </c>
+      <c r="X7">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>-4.32</v>
+      </c>
+      <c r="AB7">
+        <v>-2.0270000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.254</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF7">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>-4.8710000000000004</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK7">
+        <v>-5.423</v>
+      </c>
+      <c r="AL7">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AO7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AP7">
+        <v>-0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8">
+        <v>-1.925</v>
+      </c>
+      <c r="C8">
+        <v>-1.4570000000000001</v>
+      </c>
+      <c r="D8">
+        <v>-4.3250000000000002</v>
+      </c>
+      <c r="E8">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="K8">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="L8" t="s">
+        <v>545</v>
+      </c>
+      <c r="M8">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="N8">
+        <v>-1.607</v>
+      </c>
+      <c r="O8">
+        <v>-2.2629999999999999</v>
+      </c>
+      <c r="P8">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="U8">
+        <v>5.9589999999999996</v>
+      </c>
+      <c r="W8">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="X8">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="Y8">
+        <v>-2.806</v>
+      </c>
+      <c r="AB8">
+        <v>1.054</v>
+      </c>
+      <c r="AD8">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF8">
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>-5.3319999999999999</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK8">
+        <v>-5.2990000000000004</v>
+      </c>
+      <c r="AL8">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="AO8">
+        <v>-0.3</v>
+      </c>
+      <c r="AP8">
+        <v>-0.997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9">
+        <v>-1.0640000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D9">
+        <v>-4.1760000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="K9">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>545</v>
+      </c>
+      <c r="M9">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="N9">
+        <v>-1.6160000000000001</v>
+      </c>
+      <c r="O9">
+        <v>-3.4220000000000002</v>
+      </c>
+      <c r="P9">
+        <v>-1.1439999999999999</v>
+      </c>
+      <c r="U9">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="W9">
+        <v>-1.96</v>
+      </c>
+      <c r="X9">
+        <v>4.3140000000000001</v>
+      </c>
+      <c r="Y9">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>-1.002</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF9">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>-2.0289999999999999</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK9">
+        <v>-2.7570000000000001</v>
+      </c>
+      <c r="AL9">
+        <v>1.702</v>
+      </c>
+      <c r="AO9">
+        <v>1.327</v>
+      </c>
+      <c r="AP9">
+        <v>-0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10">
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="C10">
+        <v>-1.3660000000000001</v>
+      </c>
+      <c r="D10">
+        <v>-2.024</v>
+      </c>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>0.125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>545</v>
+      </c>
+      <c r="M10">
+        <v>5.468</v>
+      </c>
+      <c r="N10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O10">
+        <v>-2.536</v>
+      </c>
+      <c r="P10">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="U10">
+        <v>3.403</v>
+      </c>
+      <c r="W10">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="X10">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="Y10">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>1.724</v>
+      </c>
+      <c r="AD10">
+        <v>-1.331</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF10">
+        <v>0.435</v>
+      </c>
+      <c r="AH10">
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK10">
+        <v>-0.53600000000000003</v>
+      </c>
+      <c r="AL10">
+        <v>2.399</v>
+      </c>
+      <c r="AO10">
+        <v>2.331</v>
+      </c>
+      <c r="AP10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="C11">
+        <v>-0.222</v>
+      </c>
+      <c r="D11">
+        <v>-1.024</v>
+      </c>
+      <c r="E11">
+        <v>2.899</v>
+      </c>
+      <c r="K11">
+        <v>-0.88500000000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>545</v>
+      </c>
+      <c r="M11">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="N11">
+        <v>1.728</v>
+      </c>
+      <c r="O11">
+        <v>-1.5129999999999999</v>
+      </c>
+      <c r="P11">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="U11">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="W11">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="X11">
+        <v>7.1310000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="AB11">
+        <v>5.601</v>
+      </c>
+      <c r="AD11">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF11">
+        <v>-1.4410000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK11">
+        <v>1.504</v>
+      </c>
+      <c r="AL11">
+        <v>3.2669999999999999</v>
+      </c>
+      <c r="AO11">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="AP11">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12">
+        <v>0.623</v>
+      </c>
+      <c r="C12">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D12">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.258</v>
+      </c>
+      <c r="K12">
+        <v>-1.135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>545</v>
+      </c>
+      <c r="M12">
+        <v>5.1159999999999997</v>
+      </c>
+      <c r="N12">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="O12">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="P12">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="U12">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="X12">
+        <v>7.9219999999999997</v>
+      </c>
+      <c r="Y12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AB12">
+        <v>5.319</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF12">
+        <v>-0.97</v>
+      </c>
+      <c r="AH12">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK12">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="AL12">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="AO12">
+        <v>1.56</v>
+      </c>
+      <c r="AP12">
+        <v>-0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13">
+        <v>-2.8370000000000002</v>
+      </c>
+      <c r="C13">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="D13">
+        <v>-0.83799999999999997</v>
+      </c>
+      <c r="E13">
+        <v>-1.5069999999999999</v>
+      </c>
+      <c r="K13">
+        <v>-1.5309999999999999</v>
+      </c>
+      <c r="L13" t="s">
+        <v>545</v>
+      </c>
+      <c r="M13">
+        <v>-1.679</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>2.6030000000000002</v>
+      </c>
+      <c r="P13">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="U13">
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="W13">
+        <v>0.161</v>
+      </c>
+      <c r="X13">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="Y13">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="AD13">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF13">
+        <v>-1.615</v>
+      </c>
+      <c r="AH13">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK13">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="AL13">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="AO13">
+        <v>-1.2729999999999999</v>
+      </c>
+      <c r="AP13">
+        <v>-2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14">
+        <v>-3.0990000000000002</v>
+      </c>
+      <c r="C14">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="D14">
+        <v>-1.514</v>
+      </c>
+      <c r="E14">
+        <v>-2.2269999999999999</v>
+      </c>
+      <c r="K14">
+        <v>-1.5269999999999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>545</v>
+      </c>
+      <c r="M14">
+        <v>-5.2</v>
+      </c>
+      <c r="N14">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="O14">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="P14">
+        <v>3.698</v>
+      </c>
+      <c r="U14">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="W14">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="X14">
+        <v>5.7789999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>5.093</v>
+      </c>
+      <c r="AD14">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF14">
+        <v>-1.524</v>
+      </c>
+      <c r="AH14">
+        <v>4.3689999999999998</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK14">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AL14">
+        <v>-1.8340000000000001</v>
+      </c>
+      <c r="AO14">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="AP14">
+        <v>-2.0190000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15">
+        <v>-2.2629999999999999</v>
+      </c>
+      <c r="C15">
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="D15">
+        <v>-4.4130000000000003</v>
+      </c>
+      <c r="E15">
+        <v>-1.768</v>
+      </c>
+      <c r="K15">
+        <v>-3.577</v>
+      </c>
+      <c r="L15" t="s">
+        <v>545</v>
+      </c>
+      <c r="M15">
+        <v>-6.6280000000000001</v>
+      </c>
+      <c r="N15">
+        <v>-1.8839999999999999</v>
+      </c>
+      <c r="O15">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.878</v>
+      </c>
+      <c r="U15">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="W15">
+        <v>-3.03</v>
+      </c>
+      <c r="X15">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="Y15">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="AB15">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="AD15">
+        <v>-1.64</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF15">
+        <v>-1.506</v>
+      </c>
+      <c r="AH15">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AI15">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="AK15">
+        <v>-3.4569999999999999</v>
+      </c>
+      <c r="AL15">
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="AO15">
+        <v>-2.1309999999999998</v>
+      </c>
+      <c r="AP15">
+        <v>-1.9259999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="C16">
+        <v>-0.78600000000000003</v>
+      </c>
+      <c r="D16">
+        <v>-3.5609999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K16">
+        <v>-0.88900000000000001</v>
+      </c>
+      <c r="L16" t="s">
+        <v>545</v>
+      </c>
+      <c r="M16">
+        <v>-4.2249999999999996</v>
+      </c>
+      <c r="N16">
+        <v>-1.5549999999999999</v>
+      </c>
+      <c r="O16">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="P16">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="U16">
+        <v>-1.841</v>
+      </c>
+      <c r="W16">
+        <v>-2.62</v>
+      </c>
+      <c r="X16">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="Y16">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AB16">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="AD16">
+        <v>-1.59</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF16">
+        <v>-0.93200000000000005</v>
+      </c>
+      <c r="AH16">
+        <v>-1.54</v>
+      </c>
+      <c r="AI16">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="AK16">
+        <v>-3.7069999999999999</v>
+      </c>
+      <c r="AL16">
+        <v>-3.66</v>
+      </c>
+      <c r="AO16">
+        <v>-0.94599999999999995</v>
+      </c>
+      <c r="AP16">
+        <v>-0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17">
+        <v>-1.1519999999999999</v>
+      </c>
+      <c r="C17">
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="D17">
+        <v>-0.88400000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>-0.433</v>
+      </c>
+      <c r="L17">
+        <v>-0.85499999999999998</v>
+      </c>
+      <c r="M17">
+        <v>-2.8940000000000001</v>
+      </c>
+      <c r="N17">
+        <v>-1.3720000000000001</v>
+      </c>
+      <c r="O17">
+        <v>-0.68</v>
+      </c>
+      <c r="P17">
+        <v>1.002</v>
+      </c>
+      <c r="U17">
+        <v>-6.7439999999999998</v>
+      </c>
+      <c r="W17">
+        <v>-2.09</v>
+      </c>
+      <c r="X17">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="Y17">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="AB17">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>-1.87</v>
+      </c>
+      <c r="AE17">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="AF17">
+        <v>-0.82599999999999996</v>
+      </c>
+      <c r="AH17">
+        <v>-2.387</v>
+      </c>
+      <c r="AI17">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="AK17">
+        <v>-2.2789999999999999</v>
+      </c>
+      <c r="AL17">
+        <v>-1.6080000000000001</v>
+      </c>
+      <c r="AO17">
+        <v>-1.4179999999999999</v>
+      </c>
+      <c r="AP17">
+        <v>-0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18">
+        <v>-0.71699999999999997</v>
+      </c>
+      <c r="C18">
+        <v>-0.67700000000000005</v>
+      </c>
+      <c r="D18">
+        <v>-1.6930000000000001</v>
+      </c>
+      <c r="E18">
+        <v>-1.3540000000000001</v>
+      </c>
+      <c r="K18">
+        <v>-0.123</v>
+      </c>
+      <c r="L18">
+        <v>-1.9510000000000001</v>
+      </c>
+      <c r="M18">
+        <v>-2.258</v>
+      </c>
+      <c r="N18">
+        <v>-2.0680000000000001</v>
+      </c>
+      <c r="O18">
+        <v>-1.258</v>
+      </c>
+      <c r="P18">
+        <v>1.018</v>
+      </c>
+      <c r="U18">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="W18">
+        <v>-2.44</v>
+      </c>
+      <c r="X18">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="Y18">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>-4.6070000000000002</v>
+      </c>
+      <c r="AD18">
+        <v>-1.51</v>
+      </c>
+      <c r="AE18">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AF18">
+        <v>-0.28199999999999997</v>
+      </c>
+      <c r="AH18">
+        <v>-1.5580000000000001</v>
+      </c>
+      <c r="AI18">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="AK18">
+        <v>-3.867</v>
+      </c>
+      <c r="AL18">
+        <v>-2.218</v>
+      </c>
+      <c r="AO18">
+        <v>-2.1379999999999999</v>
+      </c>
+      <c r="AP18">
+        <v>-0.498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <v>-0.38600000000000001</v>
+      </c>
+      <c r="D19">
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="E19">
+        <v>-0.63400000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.51</v>
+      </c>
+      <c r="L19">
+        <v>3.883</v>
+      </c>
+      <c r="M19">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="N19">
+        <v>-2.0539999999999998</v>
+      </c>
+      <c r="O19">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="P19">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="U19">
+        <v>-2.242</v>
+      </c>
+      <c r="W19">
+        <v>-2.25</v>
+      </c>
+      <c r="X19">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="Y19">
+        <v>3.1419999999999999</v>
+      </c>
+      <c r="AB19">
+        <v>-4.8140000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>-0.51</v>
+      </c>
+      <c r="AE19">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AF19">
+        <v>1.119</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AI19">
+        <v>6.5289999999999999</v>
+      </c>
+      <c r="AK19">
+        <v>-2.9359999999999999</v>
+      </c>
+      <c r="AL19">
+        <v>-1.7070000000000001</v>
+      </c>
+      <c r="AO19">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="AP19">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D20">
+        <v>-0.73399999999999999</v>
+      </c>
+      <c r="E20">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="K20">
+        <v>0.24</v>
+      </c>
+      <c r="L20">
+        <v>1.071</v>
+      </c>
+      <c r="M20">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="N20">
+        <v>-0.94</v>
+      </c>
+      <c r="O20">
+        <v>-0.51200000000000001</v>
+      </c>
+      <c r="P20">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="U20">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="W20">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="X20">
+        <v>1.502</v>
+      </c>
+      <c r="Y20">
+        <v>-7.1580000000000004</v>
+      </c>
+      <c r="AB20">
+        <v>-4.6070000000000002</v>
+      </c>
+      <c r="AD20">
+        <v>0.71</v>
+      </c>
+      <c r="AE20">
+        <v>-2.415</v>
+      </c>
+      <c r="AF20">
+        <v>1.532</v>
+      </c>
+      <c r="AH20">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="AI20">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="AK20">
+        <v>-1.66</v>
+      </c>
+      <c r="AL20">
+        <v>-0.60599999999999998</v>
+      </c>
+      <c r="AO20">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="AP20">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="C21">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L21">
+        <v>-4.758</v>
+      </c>
+      <c r="M21">
+        <v>1.637</v>
+      </c>
+      <c r="N21">
+        <v>-0.153</v>
+      </c>
+      <c r="O21">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="P21">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="U21">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="W21">
+        <v>-2.16</v>
+      </c>
+      <c r="X21">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="AB21">
+        <v>-2.5489999999999999</v>
+      </c>
+      <c r="AD21">
+        <v>2.27</v>
+      </c>
+      <c r="AE21">
+        <v>-1.056</v>
+      </c>
+      <c r="AF21">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AH21">
+        <v>2.9769999999999999</v>
+      </c>
+      <c r="AI21">
+        <v>0.191</v>
+      </c>
+      <c r="AK21">
+        <v>-0.63</v>
+      </c>
+      <c r="AL21">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AO21">
+        <v>0.114</v>
+      </c>
+      <c r="AP21">
+        <v>1.7809999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C22">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="D22">
+        <v>1.595</v>
+      </c>
+      <c r="E22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K22">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="L22">
+        <v>-0.95099999999999996</v>
+      </c>
+      <c r="M22">
+        <v>3.0259999999999998</v>
+      </c>
+      <c r="N22">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="O22">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="P22">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="U22">
+        <v>2.907</v>
+      </c>
+      <c r="W22">
+        <v>-0.108</v>
+      </c>
+      <c r="X22">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="Y22">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AB22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AD22">
+        <v>3.27</v>
+      </c>
+      <c r="AE22">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AF22">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="AH22">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="AI22">
+        <v>-2.218</v>
+      </c>
+      <c r="AK22">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="AL22">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="AO22">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AP22">
+        <v>2.0579999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D23">
+        <v>0.441</v>
+      </c>
+      <c r="E23">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K23">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="L23">
+        <v>-0.89700000000000002</v>
+      </c>
+      <c r="M23">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="O23">
+        <v>1.571</v>
+      </c>
+      <c r="P23">
+        <v>1.827</v>
+      </c>
+      <c r="U23">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="X23">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="AB23">
+        <v>-0.215</v>
+      </c>
+      <c r="AD23">
+        <v>2.82</v>
+      </c>
+      <c r="AE23">
+        <v>-0.59199999999999997</v>
+      </c>
+      <c r="AF23">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AH23">
+        <v>3.5739999999999998</v>
+      </c>
+      <c r="AI23">
+        <v>-3.0579999999999998</v>
+      </c>
+      <c r="AK23">
+        <v>1.385</v>
+      </c>
+      <c r="AL23">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AO23">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="AP23">
+        <v>-0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D24">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="K24">
+        <v>-0.107</v>
+      </c>
+      <c r="L24">
+        <v>-0.66200000000000003</v>
+      </c>
+      <c r="M24">
+        <v>0.62</v>
+      </c>
+      <c r="N24">
+        <v>0.376</v>
+      </c>
+      <c r="O24">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="P24">
+        <v>1.569</v>
+      </c>
+      <c r="U24">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="W24">
+        <v>-0.4</v>
+      </c>
+      <c r="X24">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="Y24">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="AB24">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AD24">
+        <v>0.67</v>
+      </c>
+      <c r="AE24">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="AF24">
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="AH24">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="AI24">
+        <v>-2.8490000000000002</v>
+      </c>
+      <c r="AK24">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="AL24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AO24">
+        <v>0.185</v>
+      </c>
+      <c r="AP24">
+        <v>-2.1150000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25">
+        <v>-0.25600000000000001</v>
+      </c>
+      <c r="C25">
+        <v>-1.2030000000000001</v>
+      </c>
+      <c r="D25">
+        <v>-1.276</v>
+      </c>
+      <c r="E25">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="K25">
+        <v>-1.321</v>
+      </c>
+      <c r="L25">
+        <v>0.249</v>
+      </c>
+      <c r="M25">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="N25">
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="O25">
+        <v>-1.39</v>
+      </c>
+      <c r="P25">
+        <v>2.492</v>
+      </c>
+      <c r="U25">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="W25">
+        <v>-1.08</v>
+      </c>
+      <c r="X25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="Y25">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="AB25">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>-1.25</v>
+      </c>
+      <c r="AE25">
+        <v>1.454</v>
+      </c>
+      <c r="AF25">
+        <v>-1.952</v>
+      </c>
+      <c r="AH25">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="AI25">
+        <v>-1.82</v>
+      </c>
+      <c r="AK25">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="AL25">
+        <v>-0.313</v>
+      </c>
+      <c r="AO25">
+        <v>0.998</v>
+      </c>
+      <c r="AP25">
+        <v>-2.383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C26">
+        <v>-0.76</v>
+      </c>
+      <c r="D26">
+        <v>-0.129</v>
+      </c>
+      <c r="E26">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="K26">
+        <v>-0.188</v>
+      </c>
+      <c r="L26">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="M26">
+        <v>1.881</v>
+      </c>
+      <c r="N26">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="O26">
+        <v>-1.306</v>
+      </c>
+      <c r="P26">
+        <v>3.524</v>
+      </c>
+      <c r="U26">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="W26">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="X26">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="Y26">
+        <v>0.121</v>
+      </c>
+      <c r="AB26">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AD26">
+        <v>-1.3</v>
+      </c>
+      <c r="AE26">
+        <v>2.802</v>
+      </c>
+      <c r="AF26">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="AH26">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="AI26">
+        <v>-1.4870000000000001</v>
+      </c>
+      <c r="AK26">
+        <v>1.948</v>
+      </c>
+      <c r="AL26">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AO26">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AP26">
+        <v>-1.468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C27">
+        <v>-0.52400000000000002</v>
+      </c>
+      <c r="D27">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="L27">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="M27">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="N27">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="O27">
+        <v>-1.804</v>
+      </c>
+      <c r="P27">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="U27">
+        <v>2.512</v>
+      </c>
+      <c r="W27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X27">
+        <v>1.073</v>
+      </c>
+      <c r="Y27">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AB27">
+        <v>-1.1240000000000001</v>
+      </c>
+      <c r="AD27">
+        <v>-1.17</v>
+      </c>
+      <c r="AE27">
+        <v>2.81</v>
+      </c>
+      <c r="AF27">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AH27">
+        <v>-0.64800000000000002</v>
+      </c>
+      <c r="AI27">
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="AK27">
+        <v>2.899</v>
+      </c>
+      <c r="AL27">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AO27">
+        <v>1.784</v>
+      </c>
+      <c r="AP27">
+        <v>-0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E28">
+        <v>1.514</v>
+      </c>
+      <c r="K28">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="L28">
+        <v>9.0470000000000006</v>
+      </c>
+      <c r="M28">
+        <v>3.42</v>
+      </c>
+      <c r="N28">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O28">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="P28">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="U28">
+        <v>4.4139999999999997</v>
+      </c>
+      <c r="W28">
+        <v>1.48</v>
+      </c>
+      <c r="X28">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AB28">
+        <v>-1.165</v>
+      </c>
+      <c r="AD28">
+        <v>0.37</v>
+      </c>
+      <c r="AE28">
+        <v>2.806</v>
+      </c>
+      <c r="AF28">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="AH28">
+        <v>-0.192</v>
+      </c>
+      <c r="AI28">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="AK28">
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="AL28">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="AO28">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="AP28">
+        <v>-0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C29">
+        <v>2.61</v>
+      </c>
+      <c r="D29">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="E29">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="K29">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="L29">
+        <v>11.840999999999999</v>
+      </c>
+      <c r="M29">
+        <v>6.4329999999999998</v>
+      </c>
+      <c r="N29">
+        <v>1.99</v>
+      </c>
+      <c r="O29">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="P29">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="U29">
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="W29">
+        <v>2.69</v>
+      </c>
+      <c r="X29">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="AB29">
+        <v>2.855</v>
+      </c>
+      <c r="AD29">
+        <v>2.4</v>
+      </c>
+      <c r="AE29">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="AF29">
+        <v>3.423</v>
+      </c>
+      <c r="AH29">
+        <v>1.264</v>
+      </c>
+      <c r="AI29">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="AK29">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="AL29">
+        <v>4.4459999999999997</v>
+      </c>
+      <c r="AO29">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="AP29">
+        <v>-0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C30">
+        <v>2.73</v>
+      </c>
+      <c r="D30">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E30">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="K30">
+        <v>2.371</v>
+      </c>
+      <c r="L30">
+        <v>3.629</v>
+      </c>
+      <c r="M30">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="N30">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="O30">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="P30">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="U30">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="W30">
+        <v>1.78</v>
+      </c>
+      <c r="X30">
+        <v>-0.84499999999999997</v>
+      </c>
+      <c r="Y30">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AB30">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="AD30">
+        <v>3.27</v>
+      </c>
+      <c r="AE30">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="AF30">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="AH30">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AI30">
+        <v>6.9509999999999996</v>
+      </c>
+      <c r="AK30">
+        <v>3.2719999999999998</v>
+      </c>
+      <c r="AL30">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="AO30">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="AP30">
+        <v>-2.734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31">
+        <v>-0.42799999999999999</v>
+      </c>
+      <c r="C31">
+        <v>-1.298</v>
+      </c>
+      <c r="D31">
+        <v>-2.0670000000000002</v>
+      </c>
+      <c r="E31">
+        <v>-3.2109999999999999</v>
+      </c>
+      <c r="K31">
+        <v>-3.11</v>
+      </c>
+      <c r="L31">
+        <v>-10.984999999999999</v>
+      </c>
+      <c r="M31">
+        <v>-3.0720000000000001</v>
+      </c>
+      <c r="N31">
+        <v>-2.524</v>
+      </c>
+      <c r="O31">
+        <v>-3.8450000000000002</v>
+      </c>
+      <c r="P31">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="U31">
+        <v>-3.7789999999999999</v>
+      </c>
+      <c r="W31">
+        <v>-3.17</v>
+      </c>
+      <c r="X31">
+        <v>-6.8810000000000002</v>
+      </c>
+      <c r="Y31">
+        <v>-2.2109999999999999</v>
+      </c>
+      <c r="AB31">
+        <v>-2.9390000000000001</v>
+      </c>
+      <c r="AD31">
+        <v>-1.2</v>
+      </c>
+      <c r="AE31">
+        <v>-1.9770000000000001</v>
+      </c>
+      <c r="AF31">
+        <v>-1.0820000000000001</v>
+      </c>
+      <c r="AH31">
+        <v>-2.9820000000000002</v>
+      </c>
+      <c r="AI31">
+        <v>-3.1949999999999998</v>
+      </c>
+      <c r="AK31">
+        <v>-2.1259999999999999</v>
+      </c>
+      <c r="AL31">
+        <v>-4.4790000000000001</v>
+      </c>
+      <c r="AO31">
+        <v>-2.9969999999999999</v>
+      </c>
+      <c r="AP31">
+        <v>-7.2359999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32">
+        <v>-0.88700000000000001</v>
+      </c>
+      <c r="C32">
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="D32">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="E32">
+        <v>-1.754</v>
+      </c>
+      <c r="K32">
+        <v>-1.839</v>
+      </c>
+      <c r="L32">
+        <v>-8.2759999999999998</v>
+      </c>
+      <c r="M32">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="N32">
+        <v>-1.7629999999999999</v>
+      </c>
+      <c r="O32">
+        <v>-0.97799999999999998</v>
+      </c>
+      <c r="P32">
+        <v>-4.8650000000000002</v>
+      </c>
+      <c r="U32">
+        <v>-3.8759999999999999</v>
+      </c>
+      <c r="W32">
+        <v>-1.31</v>
+      </c>
+      <c r="X32">
+        <v>-3.3820000000000001</v>
+      </c>
+      <c r="Y32">
+        <v>0.54</v>
+      </c>
+      <c r="AB32">
+        <v>0.62</v>
+      </c>
+      <c r="AD32">
+        <v>-0.74</v>
+      </c>
+      <c r="AE32">
+        <v>-2.2770000000000001</v>
+      </c>
+      <c r="AF32">
+        <v>-1.0760000000000001</v>
+      </c>
+      <c r="AH32">
+        <v>-1.579</v>
+      </c>
+      <c r="AI32">
+        <v>-1.859</v>
+      </c>
+      <c r="AK32">
+        <v>-2.9369999999999998</v>
+      </c>
+      <c r="AL32">
+        <v>-1.05</v>
+      </c>
+      <c r="AO32">
+        <v>-2.0329999999999999</v>
+      </c>
+      <c r="AP32">
+        <v>-6.5140000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33">
+        <v>-0.94699999999999995</v>
+      </c>
+      <c r="C33">
+        <v>1.087</v>
+      </c>
+      <c r="D33">
+        <v>-0.316</v>
+      </c>
+      <c r="E33">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="K33">
+        <v>-1.236</v>
+      </c>
+      <c r="L33">
+        <v>-2.7309999999999999</v>
+      </c>
+      <c r="M33">
+        <v>1.79</v>
+      </c>
+      <c r="N33">
+        <v>-0.72799999999999998</v>
+      </c>
+      <c r="O33">
+        <v>1.357</v>
+      </c>
+      <c r="P33">
+        <v>-12.163</v>
+      </c>
+      <c r="U33">
+        <v>-4.2</v>
+      </c>
+      <c r="W33">
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="X33">
+        <v>-3.923</v>
+      </c>
+      <c r="Y33">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AB33">
+        <v>1.296</v>
+      </c>
+      <c r="AD33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE33">
+        <v>-2.5510000000000002</v>
+      </c>
+      <c r="AF33">
+        <v>-1.17</v>
+      </c>
+      <c r="AH33">
+        <v>-3.4060000000000001</v>
+      </c>
+      <c r="AI33">
+        <v>-2.31</v>
+      </c>
+      <c r="AK33">
+        <v>-4.2510000000000003</v>
+      </c>
+      <c r="AL33">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AO33">
+        <v>-2.0209999999999999</v>
+      </c>
+      <c r="AP33">
+        <v>-6.5750000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34">
+        <v>-0.155</v>
+      </c>
+      <c r="C34">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D34">
+        <v>-0.93100000000000005</v>
+      </c>
+      <c r="E34">
+        <v>-0.40699999999999997</v>
+      </c>
+      <c r="K34">
+        <v>-1.8919999999999999</v>
+      </c>
+      <c r="L34">
+        <v>-1.58</v>
+      </c>
+      <c r="M34">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="N34">
+        <v>-1.452</v>
+      </c>
+      <c r="O34">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="P34">
+        <v>-15.779</v>
+      </c>
+      <c r="U34">
+        <v>-4.9480000000000004</v>
+      </c>
+      <c r="W34">
+        <v>-2.79</v>
+      </c>
+      <c r="X34">
+        <v>-3.2149999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="AB34">
+        <v>-0.93700000000000006</v>
+      </c>
+      <c r="AD34">
+        <v>-1.84</v>
+      </c>
+      <c r="AE34">
+        <v>-2.395</v>
+      </c>
+      <c r="AF34">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AH34">
+        <v>-7.2270000000000003</v>
+      </c>
+      <c r="AI34">
+        <v>-2.5009999999999999</v>
+      </c>
+      <c r="AK34">
+        <v>-7.5529999999999999</v>
+      </c>
+      <c r="AL34">
+        <v>-1.304</v>
+      </c>
+      <c r="AO34">
+        <v>-2.0760000000000001</v>
+      </c>
+      <c r="AP34">
+        <v>-5.6989999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>-0.77900000000000003</v>
+      </c>
+      <c r="C35">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="D35">
+        <v>-1.827</v>
+      </c>
+      <c r="E35">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K35">
+        <v>-2.0779999999999998</v>
+      </c>
+      <c r="L35">
+        <v>-2.3239999999999998</v>
+      </c>
+      <c r="M35">
+        <v>-1.954</v>
+      </c>
+      <c r="N35">
+        <v>-1.9750000000000001</v>
+      </c>
+      <c r="O35">
+        <v>-0.81299999999999994</v>
+      </c>
+      <c r="P35">
+        <v>-15.644</v>
+      </c>
+      <c r="U35">
+        <v>-3.165</v>
+      </c>
+      <c r="W35">
+        <v>-4.07</v>
+      </c>
+      <c r="X35">
+        <v>-1.895</v>
+      </c>
+      <c r="Y35">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>-0.29099999999999998</v>
+      </c>
+      <c r="AD35">
+        <v>-2.83</v>
+      </c>
+      <c r="AE35">
+        <v>-2.5310000000000001</v>
+      </c>
+      <c r="AF35">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AH35">
+        <v>-7.8</v>
+      </c>
+      <c r="AI35">
+        <v>-2.8679999999999999</v>
+      </c>
+      <c r="AK35">
+        <v>-8.9499999999999993</v>
+      </c>
+      <c r="AL35">
+        <v>-2.0459999999999998</v>
+      </c>
+      <c r="AO35">
+        <v>-1.5720000000000001</v>
+      </c>
+      <c r="AP35">
+        <v>-5.0519999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36">
+        <v>-0.92200000000000004</v>
+      </c>
+      <c r="C36">
+        <v>-0.96299999999999997</v>
+      </c>
+      <c r="D36">
+        <v>-1.714</v>
+      </c>
+      <c r="E36">
+        <v>1.018</v>
+      </c>
+      <c r="K36">
+        <v>-1.821</v>
+      </c>
+      <c r="L36">
+        <v>-1.6739999999999999</v>
+      </c>
+      <c r="M36">
+        <v>-3.0230000000000001</v>
+      </c>
+      <c r="N36">
+        <v>-2.1920000000000002</v>
+      </c>
+      <c r="O36">
+        <v>-0.34</v>
+      </c>
+      <c r="P36">
+        <v>-13.06</v>
+      </c>
+      <c r="U36">
+        <v>-1.2</v>
+      </c>
+      <c r="W36">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="X36">
+        <v>-2.29</v>
+      </c>
+      <c r="Y36">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="AB36">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AD36">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AE36">
+        <v>-1.5840000000000001</v>
+      </c>
+      <c r="AF36">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AH36">
+        <v>-6.8330000000000002</v>
+      </c>
+      <c r="AI36">
+        <v>-1.5069999999999999</v>
+      </c>
+      <c r="AK36">
+        <v>-7.7880000000000003</v>
+      </c>
+      <c r="AL36">
+        <v>-1.1870000000000001</v>
+      </c>
+      <c r="AO36">
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="AP36">
+        <v>-3.9710000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>-1.1659999999999999</v>
+      </c>
+      <c r="C37">
+        <v>-0.92600000000000005</v>
+      </c>
+      <c r="D37">
+        <v>-1.1930000000000001</v>
+      </c>
+      <c r="E37">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="K37">
+        <v>-1.056</v>
+      </c>
+      <c r="L37">
+        <v>-2.0630000000000002</v>
+      </c>
+      <c r="M37">
+        <v>-3.7629999999999999</v>
+      </c>
+      <c r="N37">
+        <v>-2.3929999999999998</v>
+      </c>
+      <c r="O37">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="P37">
+        <v>-11.962</v>
+      </c>
+      <c r="U37">
+        <v>0.5</v>
+      </c>
+      <c r="W37">
+        <v>-3.43</v>
+      </c>
+      <c r="X37">
+        <v>-1.5489999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="AB37">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AD37">
+        <v>-1.84</v>
+      </c>
+      <c r="AE37">
+        <v>-0.88600000000000001</v>
+      </c>
+      <c r="AF37">
+        <v>-0.32300000000000001</v>
+      </c>
+      <c r="AH37">
+        <v>-5.141</v>
+      </c>
+      <c r="AI37">
+        <v>1.19</v>
+      </c>
+      <c r="AK37">
+        <v>-4.7830000000000004</v>
+      </c>
+      <c r="AL37">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AO37">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AP37">
+        <v>-2.544</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="C38">
+        <v>-0.499</v>
+      </c>
+      <c r="D38">
+        <v>-1.3169999999999999</v>
+      </c>
+      <c r="E38">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="K38">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="L38">
+        <v>-1.4</v>
+      </c>
+      <c r="M38">
+        <v>-2.4350000000000001</v>
+      </c>
+      <c r="N38">
+        <v>-2.621</v>
+      </c>
+      <c r="O38">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P38">
+        <v>-10.71</v>
+      </c>
+      <c r="U38">
+        <v>1.9</v>
+      </c>
+      <c r="W38">
+        <v>-2.6139999999999999</v>
+      </c>
+      <c r="X38">
+        <v>-1.4550000000000001</v>
+      </c>
+      <c r="Y38">
+        <v>-0.83</v>
+      </c>
+      <c r="AB38">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="AD38">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AE38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AF38">
+        <v>-0.95899999999999996</v>
+      </c>
+      <c r="AH38">
+        <v>-3.577</v>
+      </c>
+      <c r="AI38">
+        <v>1.27</v>
+      </c>
+      <c r="AK38">
+        <v>-2.7759999999999998</v>
+      </c>
+      <c r="AL38">
+        <v>0.308</v>
+      </c>
+      <c r="AO38">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AP38">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39">
+        <v>-0.75800000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D39">
+        <v>-1.0580000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.374</v>
+      </c>
+      <c r="K39">
+        <v>1.427</v>
+      </c>
+      <c r="L39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M39">
+        <v>-0.88600000000000001</v>
+      </c>
+      <c r="N39">
+        <v>-1.528</v>
+      </c>
+      <c r="O39">
+        <v>0.998</v>
+      </c>
+      <c r="P39">
+        <v>-8.4179999999999993</v>
+      </c>
+      <c r="U39">
+        <v>1.472</v>
+      </c>
+      <c r="W39">
+        <v>-1.62</v>
+      </c>
+      <c r="X39">
+        <v>-0.53400000000000003</v>
+      </c>
+      <c r="Y39">
+        <v>-0.51800000000000002</v>
+      </c>
+      <c r="AB39">
+        <v>-0.49</v>
+      </c>
+      <c r="AD39">
+        <v>-0.05</v>
+      </c>
+      <c r="AE39">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AF39">
+        <v>-0.56799999999999995</v>
+      </c>
+      <c r="AH39">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="AI39">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="AK39">
+        <v>-1.075</v>
+      </c>
+      <c r="AL39">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="AO39">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AP39">
+        <v>-1.3169999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="C40">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="D40">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="K40">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="L40">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="M40">
+        <v>-1.0429999999999999</v>
+      </c>
+      <c r="N40">
+        <v>-0.78300000000000003</v>
+      </c>
+      <c r="O40">
+        <v>0.82</v>
+      </c>
+      <c r="P40">
+        <v>-5.9290000000000003</v>
+      </c>
+      <c r="U40">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="W40">
+        <v>-1.133</v>
+      </c>
+      <c r="X40">
+        <v>-0.90700000000000003</v>
+      </c>
+      <c r="Y40">
+        <v>-0.316</v>
+      </c>
+      <c r="AB40">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AD40">
+        <v>0.7</v>
+      </c>
+      <c r="AE40">
+        <v>1.04</v>
+      </c>
+      <c r="AF40">
+        <v>-0.214</v>
+      </c>
+      <c r="AH40">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AI40">
+        <v>1.476</v>
+      </c>
+      <c r="AK40">
+        <v>-0.03</v>
+      </c>
+      <c r="AL40">
+        <v>1.86</v>
+      </c>
+      <c r="AO40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AP40">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>-0.74199999999999999</v>
+      </c>
+      <c r="C41">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K41">
+        <v>1.804</v>
+      </c>
+      <c r="L41">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="M41">
+        <v>-1.0369999999999999</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="P41">
+        <v>-3.67</v>
+      </c>
+      <c r="U41">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="W41">
+        <v>-1.2729999999999999</v>
+      </c>
+      <c r="X41">
+        <v>-1.5109999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="AB41">
+        <v>1.087</v>
+      </c>
+      <c r="AD41">
+        <v>0.6</v>
+      </c>
+      <c r="AE41">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AF41">
+        <v>0.2</v>
+      </c>
+      <c r="AH41">
+        <v>1.397</v>
+      </c>
+      <c r="AI41">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AK41">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AL41">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="AO41">
+        <v>0.106</v>
+      </c>
+      <c r="AP41">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42">
+        <v>-4.2880000000000003</v>
+      </c>
+      <c r="C42">
+        <v>-1.2969999999999999</v>
+      </c>
+      <c r="D42">
+        <v>-3.548</v>
+      </c>
+      <c r="E42">
+        <v>-3.3540000000000001</v>
+      </c>
+      <c r="K42">
+        <v>-1.9179999999999999</v>
+      </c>
+      <c r="L42">
+        <v>-2.9660000000000002</v>
+      </c>
+      <c r="M42">
+        <v>-4.3120000000000003</v>
+      </c>
+      <c r="N42">
+        <v>-4.3239999999999998</v>
+      </c>
+      <c r="O42">
+        <v>-2.6040000000000001</v>
+      </c>
+      <c r="P42">
+        <v>-10.801</v>
+      </c>
+      <c r="U42">
+        <v>-2.29</v>
+      </c>
+      <c r="W42">
+        <v>-6.1360000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-2.7480000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>-2.8119999999999998</v>
+      </c>
+      <c r="AB42">
+        <v>-1.9570000000000001</v>
+      </c>
+      <c r="AD42">
+        <v>-1.8</v>
+      </c>
+      <c r="AE42">
+        <v>-2.9889999999999999</v>
+      </c>
+      <c r="AF42">
+        <v>-2.746</v>
+      </c>
+      <c r="AH42">
+        <v>-4.9779999999999998</v>
+      </c>
+      <c r="AI42">
+        <v>-4.5860000000000003</v>
+      </c>
+      <c r="AK42">
+        <v>-8.5120000000000005</v>
+      </c>
+      <c r="AL42">
+        <v>-1.133</v>
+      </c>
+      <c r="AO42">
+        <v>-4.2830000000000004</v>
+      </c>
+      <c r="AP42">
+        <v>-3.3170000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43">
+        <v>-2.258</v>
+      </c>
+      <c r="C43">
+        <v>-1.5049999999999999</v>
+      </c>
+      <c r="D43">
+        <v>-1.5960000000000001</v>
+      </c>
+      <c r="E43">
+        <v>-1.0429999999999999</v>
+      </c>
+      <c r="K43">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.74</v>
+      </c>
+      <c r="M43">
+        <v>-2.3159999999999998</v>
+      </c>
+      <c r="N43">
+        <v>-2.242</v>
+      </c>
+      <c r="O43">
+        <v>-2.0129999999999999</v>
+      </c>
+      <c r="P43">
+        <v>-5.585</v>
+      </c>
+      <c r="U43">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-4.9039999999999999</v>
+      </c>
+      <c r="X43">
+        <v>-2.4169999999999998</v>
+      </c>
+      <c r="Y43">
+        <v>-1.5389999999999999</v>
+      </c>
+      <c r="AB43">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="AD43">
+        <v>-1.5</v>
+      </c>
+      <c r="AE43">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AF43">
+        <v>-1.17</v>
+      </c>
+      <c r="AH43">
+        <v>-2.9780000000000002</v>
+      </c>
+      <c r="AI43">
+        <v>-2.5680000000000001</v>
+      </c>
+      <c r="AK43">
+        <v>-5.37</v>
+      </c>
+      <c r="AL43">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AO43">
+        <v>-2.13</v>
+      </c>
+      <c r="AP43">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2022</v>
+      </c>
+      <c r="B44">
+        <v>0.03</v>
+      </c>
+      <c r="C44">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="D44">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="E44">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="K44">
+        <v>0.314</v>
+      </c>
+      <c r="L44">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M44">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="N44">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="O44">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="P44">
+        <v>-2.0459999999999998</v>
+      </c>
+      <c r="U44">
+        <v>-0.192</v>
+      </c>
+      <c r="W44">
+        <v>-1.411</v>
+      </c>
+      <c r="X44">
+        <v>-0.8</v>
+      </c>
+      <c r="Y44">
+        <v>-0.7</v>
+      </c>
+      <c r="AB44">
+        <v>-0.109</v>
+      </c>
+      <c r="AD44">
+        <v>-0.8</v>
+      </c>
+      <c r="AE44">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="AF44">
+        <v>-0.16</v>
+      </c>
+      <c r="AH44">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="AI44">
+        <v>-0.91500000000000004</v>
+      </c>
+      <c r="AK44">
+        <v>-1.044</v>
+      </c>
+      <c r="AL44">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="AO44">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="AP44">
+        <v>3.3010000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AW85"/>
@@ -18943,3796 +22397,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3F4298-0CA7-42A4-A63B-F2C6749E72FB}">
-  <dimension ref="A1:AP48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I1" t="s">
-        <v>498</v>
-      </c>
-      <c r="J1" t="s">
-        <v>543</v>
-      </c>
-      <c r="K1" t="s">
-        <v>574</v>
-      </c>
-      <c r="L1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M1" t="s">
-        <v>719</v>
-      </c>
-      <c r="N1" t="s">
-        <v>805</v>
-      </c>
-      <c r="O1" t="s">
-        <v>892</v>
-      </c>
-      <c r="P1" t="s">
-        <v>977</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>1969</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>2053</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>2098</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>2180</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>2241</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>2273</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>2443</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>2488</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>2533</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="U5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="W5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="X5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>2701</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1980</v>
-      </c>
-      <c r="B6">
-        <v>-0.89900000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="D6">
-        <v>-0.318</v>
-      </c>
-      <c r="E6">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="K6">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="L6" t="s">
-        <v>545</v>
-      </c>
-      <c r="M6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N6">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="O6">
-        <v>2.484</v>
-      </c>
-      <c r="P6">
-        <v>2.044</v>
-      </c>
-      <c r="U6">
-        <v>10.967000000000001</v>
-      </c>
-      <c r="W6" t="s">
-        <v>545</v>
-      </c>
-      <c r="X6">
-        <v>-1.4079999999999999</v>
-      </c>
-      <c r="Y6">
-        <v>-5.6269999999999998</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD6">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF6">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="AH6">
-        <v>5.61</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK6">
-        <v>-2.66</v>
-      </c>
-      <c r="AL6">
-        <v>7.766</v>
-      </c>
-      <c r="AO6">
-        <v>-1.006</v>
-      </c>
-      <c r="AP6">
-        <v>-2.7519999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1981</v>
-      </c>
-      <c r="B7">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="C7">
-        <v>-1.58</v>
-      </c>
-      <c r="D7">
-        <v>-2.153</v>
-      </c>
-      <c r="E7">
-        <v>2.1440000000000001</v>
-      </c>
-      <c r="K7">
-        <v>-2.7429999999999999</v>
-      </c>
-      <c r="L7" t="s">
-        <v>545</v>
-      </c>
-      <c r="M7">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="N7">
-        <v>2.3E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="P7">
-        <v>-0.29499999999999998</v>
-      </c>
-      <c r="U7">
-        <v>11.032</v>
-      </c>
-      <c r="W7">
-        <v>-0.92200000000000004</v>
-      </c>
-      <c r="X7">
-        <v>-0.12</v>
-      </c>
-      <c r="Y7">
-        <v>-7.1390000000000002</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD7">
-        <v>-0.35199999999999998</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF7">
-        <v>0.12</v>
-      </c>
-      <c r="AH7">
-        <v>5.0579999999999998</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK7">
-        <v>-4.7380000000000004</v>
-      </c>
-      <c r="AL7">
-        <v>-0.86799999999999999</v>
-      </c>
-      <c r="AO7">
-        <v>-2.8180000000000001</v>
-      </c>
-      <c r="AP7">
-        <v>-2.0449999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1982</v>
-      </c>
-      <c r="B8">
-        <v>-1.7529999999999999</v>
-      </c>
-      <c r="C8">
-        <v>-1.476</v>
-      </c>
-      <c r="D8">
-        <v>-3.149</v>
-      </c>
-      <c r="E8">
-        <v>-3.5379999999999998</v>
-      </c>
-      <c r="K8">
-        <v>-1.76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>545</v>
-      </c>
-      <c r="M8">
-        <v>-0.56200000000000006</v>
-      </c>
-      <c r="N8">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="O8">
-        <v>-2.0670000000000002</v>
-      </c>
-      <c r="P8">
-        <v>-2.0179999999999998</v>
-      </c>
-      <c r="U8">
-        <v>10.891999999999999</v>
-      </c>
-      <c r="W8">
-        <v>-2.35</v>
-      </c>
-      <c r="X8">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="Y8">
-        <v>-7.5369999999999999</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD8">
-        <v>-2.444</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF8">
-        <v>-1.7649999999999999</v>
-      </c>
-      <c r="AH8">
-        <v>3.8029999999999999</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK8">
-        <v>-5.2009999999999996</v>
-      </c>
-      <c r="AL8">
-        <v>-1.462</v>
-      </c>
-      <c r="AO8">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="AP8">
-        <v>-6.5469999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1983</v>
-      </c>
-      <c r="B9">
-        <v>-4.8099999999999996</v>
-      </c>
-      <c r="C9">
-        <v>-0.504</v>
-      </c>
-      <c r="D9">
-        <v>-4.4649999999999999</v>
-      </c>
-      <c r="E9">
-        <v>-3.569</v>
-      </c>
-      <c r="K9">
-        <v>-1.7929999999999999</v>
-      </c>
-      <c r="L9" t="s">
-        <v>545</v>
-      </c>
-      <c r="M9">
-        <v>-0.61799999999999999</v>
-      </c>
-      <c r="N9">
-        <v>-0.35899999999999999</v>
-      </c>
-      <c r="O9">
-        <v>-2.556</v>
-      </c>
-      <c r="P9">
-        <v>-3.4409999999999998</v>
-      </c>
-      <c r="U9">
-        <v>9.8629999999999995</v>
-      </c>
-      <c r="W9">
-        <v>-3.552</v>
-      </c>
-      <c r="X9">
-        <v>1.179</v>
-      </c>
-      <c r="Y9">
-        <v>-3.847</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD9">
-        <v>-2.3889999999999998</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF9">
-        <v>-2.1859999999999999</v>
-      </c>
-      <c r="AH9">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK9">
-        <v>-5.4029999999999996</v>
-      </c>
-      <c r="AL9">
-        <v>-1.361</v>
-      </c>
-      <c r="AO9">
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="AP9">
-        <v>-5.1580000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1984</v>
-      </c>
-      <c r="B10">
-        <v>-2.6560000000000001</v>
-      </c>
-      <c r="C10">
-        <v>-2.323</v>
-      </c>
-      <c r="D10">
-        <v>-3.8959999999999999</v>
-      </c>
-      <c r="E10">
-        <v>-0.84599999999999997</v>
-      </c>
-      <c r="K10">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="L10" t="s">
-        <v>545</v>
-      </c>
-      <c r="M10">
-        <v>-0.51600000000000001</v>
-      </c>
-      <c r="N10">
-        <v>-0.77200000000000002</v>
-      </c>
-      <c r="O10">
-        <v>-1.9690000000000001</v>
-      </c>
-      <c r="P10">
-        <v>-1.976</v>
-      </c>
-      <c r="U10">
-        <v>6.4640000000000004</v>
-      </c>
-      <c r="W10">
-        <v>-2.86</v>
-      </c>
-      <c r="X10">
-        <v>2.66</v>
-      </c>
-      <c r="Y10">
-        <v>-2.7890000000000001</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD10">
-        <v>-0.38800000000000001</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF10">
-        <v>-1.0860000000000001</v>
-      </c>
-      <c r="AH10">
-        <v>-3.0169999999999999</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK10">
-        <v>-5.6440000000000001</v>
-      </c>
-      <c r="AL10">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="AO10">
-        <v>-0.77800000000000002</v>
-      </c>
-      <c r="AP10">
-        <v>-1.4590000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1985</v>
-      </c>
-      <c r="B11">
-        <v>-1.355</v>
-      </c>
-      <c r="C11">
-        <v>-2.09</v>
-      </c>
-      <c r="D11">
-        <v>-4.125</v>
-      </c>
-      <c r="E11">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="K11">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L11" t="s">
-        <v>545</v>
-      </c>
-      <c r="M11">
-        <v>-0.40100000000000002</v>
-      </c>
-      <c r="N11">
-        <v>-1.3029999999999999</v>
-      </c>
-      <c r="O11">
-        <v>-2.1440000000000001</v>
-      </c>
-      <c r="P11">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="U11">
-        <v>6.9</v>
-      </c>
-      <c r="W11">
-        <v>-2.66</v>
-      </c>
-      <c r="X11">
-        <v>4.2750000000000004</v>
-      </c>
-      <c r="Y11">
-        <v>-4.32</v>
-      </c>
-      <c r="AB11">
-        <v>-2.0270000000000001</v>
-      </c>
-      <c r="AD11">
-        <v>0.254</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF11">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="AH11">
-        <v>-4.8710000000000004</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK11">
-        <v>-5.423</v>
-      </c>
-      <c r="AL11">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="AO11">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AP11">
-        <v>-0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1986</v>
-      </c>
-      <c r="B12">
-        <v>-1.925</v>
-      </c>
-      <c r="C12">
-        <v>-1.4570000000000001</v>
-      </c>
-      <c r="D12">
-        <v>-4.3250000000000002</v>
-      </c>
-      <c r="E12">
-        <v>-0.53200000000000003</v>
-      </c>
-      <c r="K12">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="L12" t="s">
-        <v>545</v>
-      </c>
-      <c r="M12">
-        <v>-0.31900000000000001</v>
-      </c>
-      <c r="N12">
-        <v>-1.607</v>
-      </c>
-      <c r="O12">
-        <v>-2.2629999999999999</v>
-      </c>
-      <c r="P12">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="U12">
-        <v>5.9589999999999996</v>
-      </c>
-      <c r="W12">
-        <v>-2.4700000000000002</v>
-      </c>
-      <c r="X12">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="Y12">
-        <v>-2.806</v>
-      </c>
-      <c r="AB12">
-        <v>1.054</v>
-      </c>
-      <c r="AD12">
-        <v>-0.34399999999999997</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF12">
-        <v>2.6480000000000001</v>
-      </c>
-      <c r="AH12">
-        <v>-5.3319999999999999</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK12">
-        <v>-5.2990000000000004</v>
-      </c>
-      <c r="AL12">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="AO12">
-        <v>-0.3</v>
-      </c>
-      <c r="AP12">
-        <v>-0.997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1987</v>
-      </c>
-      <c r="B13">
-        <v>-1.0640000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D13">
-        <v>-4.1760000000000002</v>
-      </c>
-      <c r="E13">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="K13">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="L13" t="s">
-        <v>545</v>
-      </c>
-      <c r="M13">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="N13">
-        <v>-1.6160000000000001</v>
-      </c>
-      <c r="O13">
-        <v>-3.4220000000000002</v>
-      </c>
-      <c r="P13">
-        <v>-1.1439999999999999</v>
-      </c>
-      <c r="U13">
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="W13">
-        <v>-1.96</v>
-      </c>
-      <c r="X13">
-        <v>4.3140000000000001</v>
-      </c>
-      <c r="Y13">
-        <v>-0.16900000000000001</v>
-      </c>
-      <c r="AB13">
-        <v>-0.73199999999999998</v>
-      </c>
-      <c r="AD13">
-        <v>-1.002</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF13">
-        <v>3.5009999999999999</v>
-      </c>
-      <c r="AH13">
-        <v>-2.0289999999999999</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK13">
-        <v>-2.7570000000000001</v>
-      </c>
-      <c r="AL13">
-        <v>1.702</v>
-      </c>
-      <c r="AO13">
-        <v>1.327</v>
-      </c>
-      <c r="AP13">
-        <v>-0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1988</v>
-      </c>
-      <c r="B14">
-        <v>-0.86499999999999999</v>
-      </c>
-      <c r="C14">
-        <v>-1.3660000000000001</v>
-      </c>
-      <c r="D14">
-        <v>-2.024</v>
-      </c>
-      <c r="E14">
-        <v>2.5</v>
-      </c>
-      <c r="K14">
-        <v>0.125</v>
-      </c>
-      <c r="L14" t="s">
-        <v>545</v>
-      </c>
-      <c r="M14">
-        <v>5.468</v>
-      </c>
-      <c r="N14">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O14">
-        <v>-2.536</v>
-      </c>
-      <c r="P14">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="U14">
-        <v>3.403</v>
-      </c>
-      <c r="W14">
-        <v>-0.44400000000000001</v>
-      </c>
-      <c r="X14">
-        <v>6.7329999999999997</v>
-      </c>
-      <c r="Y14">
-        <v>2.1080000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>1.724</v>
-      </c>
-      <c r="AD14">
-        <v>-1.331</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF14">
-        <v>0.435</v>
-      </c>
-      <c r="AH14">
-        <v>-0.86499999999999999</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK14">
-        <v>-0.53600000000000003</v>
-      </c>
-      <c r="AL14">
-        <v>2.399</v>
-      </c>
-      <c r="AO14">
-        <v>2.331</v>
-      </c>
-      <c r="AP14">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1989</v>
-      </c>
-      <c r="B15">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="C15">
-        <v>-0.222</v>
-      </c>
-      <c r="D15">
-        <v>-1.024</v>
-      </c>
-      <c r="E15">
-        <v>2.899</v>
-      </c>
-      <c r="K15">
-        <v>-0.88500000000000001</v>
-      </c>
-      <c r="L15" t="s">
-        <v>545</v>
-      </c>
-      <c r="M15">
-        <v>7.6749999999999998</v>
-      </c>
-      <c r="N15">
-        <v>1.728</v>
-      </c>
-      <c r="O15">
-        <v>-1.5129999999999999</v>
-      </c>
-      <c r="P15">
-        <v>4.6920000000000002</v>
-      </c>
-      <c r="U15">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="W15">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="X15">
-        <v>7.1310000000000002</v>
-      </c>
-      <c r="Y15">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="AB15">
-        <v>5.601</v>
-      </c>
-      <c r="AD15">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF15">
-        <v>-1.4410000000000001</v>
-      </c>
-      <c r="AH15">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK15">
-        <v>1.504</v>
-      </c>
-      <c r="AL15">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="AO15">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="AP15">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1990</v>
-      </c>
-      <c r="B16">
-        <v>0.623</v>
-      </c>
-      <c r="C16">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="D16">
-        <v>-0.35599999999999998</v>
-      </c>
-      <c r="E16">
-        <v>1.258</v>
-      </c>
-      <c r="K16">
-        <v>-1.135</v>
-      </c>
-      <c r="L16" t="s">
-        <v>545</v>
-      </c>
-      <c r="M16">
-        <v>5.1159999999999997</v>
-      </c>
-      <c r="N16">
-        <v>2.2410000000000001</v>
-      </c>
-      <c r="O16">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="P16">
-        <v>3.2309999999999999</v>
-      </c>
-      <c r="U16">
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="W16">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="X16">
-        <v>7.9219999999999997</v>
-      </c>
-      <c r="Y16">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="AB16">
-        <v>5.319</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF16">
-        <v>-0.97</v>
-      </c>
-      <c r="AH16">
-        <v>5.3250000000000002</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK16">
-        <v>2.5049999999999999</v>
-      </c>
-      <c r="AL16">
-        <v>3.4260000000000002</v>
-      </c>
-      <c r="AO16">
-        <v>1.56</v>
-      </c>
-      <c r="AP16">
-        <v>-0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1991</v>
-      </c>
-      <c r="B17">
-        <v>-2.8370000000000002</v>
-      </c>
-      <c r="C17">
-        <v>2.1829999999999998</v>
-      </c>
-      <c r="D17">
-        <v>-0.83799999999999997</v>
-      </c>
-      <c r="E17">
-        <v>-1.5069999999999999</v>
-      </c>
-      <c r="K17">
-        <v>-1.5309999999999999</v>
-      </c>
-      <c r="L17" t="s">
-        <v>545</v>
-      </c>
-      <c r="M17">
-        <v>-1.679</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>2.6030000000000002</v>
-      </c>
-      <c r="P17">
-        <v>4.3630000000000004</v>
-      </c>
-      <c r="U17">
-        <v>6.1340000000000003</v>
-      </c>
-      <c r="W17">
-        <v>0.161</v>
-      </c>
-      <c r="X17">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="Y17">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="AB17">
-        <v>8.5649999999999995</v>
-      </c>
-      <c r="AD17">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF17">
-        <v>-1.615</v>
-      </c>
-      <c r="AH17">
-        <v>4.8650000000000002</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK17">
-        <v>2.2679999999999998</v>
-      </c>
-      <c r="AL17">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="AO17">
-        <v>-1.2729999999999999</v>
-      </c>
-      <c r="AP17">
-        <v>-2.8919999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1992</v>
-      </c>
-      <c r="B18">
-        <v>-3.0990000000000002</v>
-      </c>
-      <c r="C18">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="D18">
-        <v>-1.514</v>
-      </c>
-      <c r="E18">
-        <v>-2.2269999999999999</v>
-      </c>
-      <c r="K18">
-        <v>-1.5269999999999999</v>
-      </c>
-      <c r="L18" t="s">
-        <v>545</v>
-      </c>
-      <c r="M18">
-        <v>-5.2</v>
-      </c>
-      <c r="N18">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="O18">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="P18">
-        <v>3.698</v>
-      </c>
-      <c r="U18">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="W18">
-        <v>-0.69899999999999995</v>
-      </c>
-      <c r="X18">
-        <v>5.7789999999999999</v>
-      </c>
-      <c r="Y18">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="AB18">
-        <v>5.093</v>
-      </c>
-      <c r="AD18">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF18">
-        <v>-1.524</v>
-      </c>
-      <c r="AH18">
-        <v>4.3689999999999998</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK18">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="AL18">
-        <v>-1.8340000000000001</v>
-      </c>
-      <c r="AO18">
-        <v>-2.5299999999999998</v>
-      </c>
-      <c r="AP18">
-        <v>-2.0190000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1993</v>
-      </c>
-      <c r="B19">
-        <v>-2.2629999999999999</v>
-      </c>
-      <c r="C19">
-        <v>-0.56899999999999995</v>
-      </c>
-      <c r="D19">
-        <v>-4.4130000000000003</v>
-      </c>
-      <c r="E19">
-        <v>-1.768</v>
-      </c>
-      <c r="K19">
-        <v>-3.577</v>
-      </c>
-      <c r="L19" t="s">
-        <v>545</v>
-      </c>
-      <c r="M19">
-        <v>-6.6280000000000001</v>
-      </c>
-      <c r="N19">
-        <v>-1.8839999999999999</v>
-      </c>
-      <c r="O19">
-        <v>-0.63300000000000001</v>
-      </c>
-      <c r="P19">
-        <v>0.878</v>
-      </c>
-      <c r="U19">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="W19">
-        <v>-3.03</v>
-      </c>
-      <c r="X19">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="Y19">
-        <v>-0.59799999999999998</v>
-      </c>
-      <c r="AB19">
-        <v>4.2720000000000002</v>
-      </c>
-      <c r="AD19">
-        <v>-1.64</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF19">
-        <v>-1.506</v>
-      </c>
-      <c r="AH19">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AI19">
-        <v>2.6720000000000002</v>
-      </c>
-      <c r="AK19">
-        <v>-3.4569999999999999</v>
-      </c>
-      <c r="AL19">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="AO19">
-        <v>-2.1309999999999998</v>
-      </c>
-      <c r="AP19">
-        <v>-1.9259999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1994</v>
-      </c>
-      <c r="B20">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="C20">
-        <v>-0.78600000000000003</v>
-      </c>
-      <c r="D20">
-        <v>-3.5609999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="K20">
-        <v>-0.88900000000000001</v>
-      </c>
-      <c r="L20" t="s">
-        <v>545</v>
-      </c>
-      <c r="M20">
-        <v>-4.2249999999999996</v>
-      </c>
-      <c r="N20">
-        <v>-1.5549999999999999</v>
-      </c>
-      <c r="O20">
-        <v>-0.29399999999999998</v>
-      </c>
-      <c r="P20">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="U20">
-        <v>-1.841</v>
-      </c>
-      <c r="W20">
-        <v>-2.62</v>
-      </c>
-      <c r="X20">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="Y20">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="AB20">
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="AD20">
-        <v>-1.59</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF20">
-        <v>-0.93200000000000005</v>
-      </c>
-      <c r="AH20">
-        <v>-1.54</v>
-      </c>
-      <c r="AI20">
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="AK20">
-        <v>-3.7069999999999999</v>
-      </c>
-      <c r="AL20">
-        <v>-3.66</v>
-      </c>
-      <c r="AO20">
-        <v>-0.94599999999999995</v>
-      </c>
-      <c r="AP20">
-        <v>-0.71699999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1995</v>
-      </c>
-      <c r="B21">
-        <v>-1.1519999999999999</v>
-      </c>
-      <c r="C21">
-        <v>-0.73199999999999998</v>
-      </c>
-      <c r="D21">
-        <v>-0.88400000000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-      <c r="K21">
-        <v>-0.433</v>
-      </c>
-      <c r="L21">
-        <v>-0.85499999999999998</v>
-      </c>
-      <c r="M21">
-        <v>-2.8940000000000001</v>
-      </c>
-      <c r="N21">
-        <v>-1.3720000000000001</v>
-      </c>
-      <c r="O21">
-        <v>-0.68</v>
-      </c>
-      <c r="P21">
-        <v>1.002</v>
-      </c>
-      <c r="U21">
-        <v>-6.7439999999999998</v>
-      </c>
-      <c r="W21">
-        <v>-2.09</v>
-      </c>
-      <c r="X21">
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="Y21">
-        <v>2.7639999999999998</v>
-      </c>
-      <c r="AB21">
-        <v>-0.23400000000000001</v>
-      </c>
-      <c r="AD21">
-        <v>-1.87</v>
-      </c>
-      <c r="AE21">
-        <v>-7.8E-2</v>
-      </c>
-      <c r="AF21">
-        <v>-0.82599999999999996</v>
-      </c>
-      <c r="AH21">
-        <v>-2.387</v>
-      </c>
-      <c r="AI21">
-        <v>3.2919999999999998</v>
-      </c>
-      <c r="AK21">
-        <v>-2.2789999999999999</v>
-      </c>
-      <c r="AL21">
-        <v>-1.6080000000000001</v>
-      </c>
-      <c r="AO21">
-        <v>-1.4179999999999999</v>
-      </c>
-      <c r="AP21">
-        <v>-0.97099999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1996</v>
-      </c>
-      <c r="B22">
-        <v>-0.71699999999999997</v>
-      </c>
-      <c r="C22">
-        <v>-0.67700000000000005</v>
-      </c>
-      <c r="D22">
-        <v>-1.6930000000000001</v>
-      </c>
-      <c r="E22">
-        <v>-1.3540000000000001</v>
-      </c>
-      <c r="K22">
-        <v>-0.123</v>
-      </c>
-      <c r="L22">
-        <v>-1.9510000000000001</v>
-      </c>
-      <c r="M22">
-        <v>-2.258</v>
-      </c>
-      <c r="N22">
-        <v>-2.0680000000000001</v>
-      </c>
-      <c r="O22">
-        <v>-1.258</v>
-      </c>
-      <c r="P22">
-        <v>1.018</v>
-      </c>
-      <c r="U22">
-        <v>-4.3099999999999996</v>
-      </c>
-      <c r="W22">
-        <v>-2.44</v>
-      </c>
-      <c r="X22">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="Y22">
-        <v>3.5390000000000001</v>
-      </c>
-      <c r="AB22">
-        <v>-4.6070000000000002</v>
-      </c>
-      <c r="AD22">
-        <v>-1.51</v>
-      </c>
-      <c r="AE22">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="AF22">
-        <v>-0.28199999999999997</v>
-      </c>
-      <c r="AH22">
-        <v>-1.5580000000000001</v>
-      </c>
-      <c r="AI22">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="AK22">
-        <v>-3.867</v>
-      </c>
-      <c r="AL22">
-        <v>-2.218</v>
-      </c>
-      <c r="AO22">
-        <v>-2.1379999999999999</v>
-      </c>
-      <c r="AP22">
-        <v>-0.498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1997</v>
-      </c>
-      <c r="B23">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="C23">
-        <v>-0.38600000000000001</v>
-      </c>
-      <c r="D23">
-        <v>-0.36899999999999999</v>
-      </c>
-      <c r="E23">
-        <v>-0.63400000000000001</v>
-      </c>
-      <c r="K23">
-        <v>0.51</v>
-      </c>
-      <c r="L23">
-        <v>3.883</v>
-      </c>
-      <c r="M23">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="N23">
-        <v>-2.0539999999999998</v>
-      </c>
-      <c r="O23">
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="P23">
-        <v>2.2160000000000002</v>
-      </c>
-      <c r="U23">
-        <v>-2.242</v>
-      </c>
-      <c r="W23">
-        <v>-2.25</v>
-      </c>
-      <c r="X23">
-        <v>4.1109999999999998</v>
-      </c>
-      <c r="Y23">
-        <v>3.1419999999999999</v>
-      </c>
-      <c r="AB23">
-        <v>-4.8140000000000001</v>
-      </c>
-      <c r="AD23">
-        <v>-0.51</v>
-      </c>
-      <c r="AE23">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="AF23">
-        <v>1.119</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>2158</v>
-      </c>
-      <c r="AI23">
-        <v>6.5289999999999999</v>
-      </c>
-      <c r="AK23">
-        <v>-2.9359999999999999</v>
-      </c>
-      <c r="AL23">
-        <v>-1.7070000000000001</v>
-      </c>
-      <c r="AO23">
-        <v>-0.55800000000000005</v>
-      </c>
-      <c r="AP23">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1998</v>
-      </c>
-      <c r="B24">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="C24">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D24">
-        <v>-0.73399999999999999</v>
-      </c>
-      <c r="E24">
-        <v>-0.46800000000000003</v>
-      </c>
-      <c r="K24">
-        <v>0.24</v>
-      </c>
-      <c r="L24">
-        <v>1.071</v>
-      </c>
-      <c r="M24">
-        <v>2.0409999999999999</v>
-      </c>
-      <c r="N24">
-        <v>-0.94</v>
-      </c>
-      <c r="O24">
-        <v>-0.51200000000000001</v>
-      </c>
-      <c r="P24">
-        <v>2.7519999999999998</v>
-      </c>
-      <c r="U24">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="W24">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="X24">
-        <v>1.502</v>
-      </c>
-      <c r="Y24">
-        <v>-7.1580000000000004</v>
-      </c>
-      <c r="AB24">
-        <v>-4.6070000000000002</v>
-      </c>
-      <c r="AD24">
-        <v>0.71</v>
-      </c>
-      <c r="AE24">
-        <v>-2.415</v>
-      </c>
-      <c r="AF24">
-        <v>1.532</v>
-      </c>
-      <c r="AH24">
-        <v>1.9039999999999999</v>
-      </c>
-      <c r="AI24">
-        <v>4.5650000000000004</v>
-      </c>
-      <c r="AK24">
-        <v>-1.66</v>
-      </c>
-      <c r="AL24">
-        <v>-0.60599999999999998</v>
-      </c>
-      <c r="AO24">
-        <v>-9.5000000000000001E-2</v>
-      </c>
-      <c r="AP24">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1999</v>
-      </c>
-      <c r="B25">
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="C25">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="D25">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="E25">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="K25">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="L25">
-        <v>-4.758</v>
-      </c>
-      <c r="M25">
-        <v>1.637</v>
-      </c>
-      <c r="N25">
-        <v>-0.153</v>
-      </c>
-      <c r="O25">
-        <v>-6.6000000000000003E-2</v>
-      </c>
-      <c r="P25">
-        <v>2.1419999999999999</v>
-      </c>
-      <c r="U25">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="W25">
-        <v>-2.16</v>
-      </c>
-      <c r="X25">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="Y25">
-        <v>-2.5499999999999998</v>
-      </c>
-      <c r="AB25">
-        <v>-2.5489999999999999</v>
-      </c>
-      <c r="AD25">
-        <v>2.27</v>
-      </c>
-      <c r="AE25">
-        <v>-1.056</v>
-      </c>
-      <c r="AF25">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="AH25">
-        <v>2.9769999999999999</v>
-      </c>
-      <c r="AI25">
-        <v>0.191</v>
-      </c>
-      <c r="AK25">
-        <v>-0.63</v>
-      </c>
-      <c r="AL25">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="AO25">
-        <v>0.114</v>
-      </c>
-      <c r="AP25">
-        <v>1.7809999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2000</v>
-      </c>
-      <c r="B26">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="C26">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="D26">
-        <v>1.595</v>
-      </c>
-      <c r="E26">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K26">
-        <v>2.3679999999999999</v>
-      </c>
-      <c r="L26">
-        <v>-0.95099999999999996</v>
-      </c>
-      <c r="M26">
-        <v>3.0259999999999998</v>
-      </c>
-      <c r="N26">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="O26">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="P26">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="U26">
-        <v>2.907</v>
-      </c>
-      <c r="W26">
-        <v>-0.108</v>
-      </c>
-      <c r="X26">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="Y26">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="AB26">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AD26">
-        <v>3.27</v>
-      </c>
-      <c r="AE26">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="AF26">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="AH26">
-        <v>4.0979999999999999</v>
-      </c>
-      <c r="AI26">
-        <v>-2.218</v>
-      </c>
-      <c r="AK26">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="AL26">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="AO26">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="AP26">
-        <v>2.0579999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2001</v>
-      </c>
-      <c r="B27">
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="C27">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="D27">
-        <v>0.441</v>
-      </c>
-      <c r="E27">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K27">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="L27">
-        <v>-0.89700000000000002</v>
-      </c>
-      <c r="M27">
-        <v>1.9430000000000001</v>
-      </c>
-      <c r="N27">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="O27">
-        <v>1.571</v>
-      </c>
-      <c r="P27">
-        <v>1.827</v>
-      </c>
-      <c r="U27">
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="W27">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="X27">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="Y27">
-        <v>-0.34599999999999997</v>
-      </c>
-      <c r="AB27">
-        <v>-0.215</v>
-      </c>
-      <c r="AD27">
-        <v>2.82</v>
-      </c>
-      <c r="AE27">
-        <v>-0.59199999999999997</v>
-      </c>
-      <c r="AF27">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="AH27">
-        <v>3.5739999999999998</v>
-      </c>
-      <c r="AI27">
-        <v>-3.0579999999999998</v>
-      </c>
-      <c r="AK27">
-        <v>1.385</v>
-      </c>
-      <c r="AL27">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="AO27">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="AP27">
-        <v>-0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2002</v>
-      </c>
-      <c r="B28">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="D28">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="K28">
-        <v>-0.107</v>
-      </c>
-      <c r="L28">
-        <v>-0.66200000000000003</v>
-      </c>
-      <c r="M28">
-        <v>0.62</v>
-      </c>
-      <c r="N28">
-        <v>0.376</v>
-      </c>
-      <c r="O28">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="P28">
-        <v>1.569</v>
-      </c>
-      <c r="U28">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="W28">
-        <v>-0.4</v>
-      </c>
-      <c r="X28">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="Y28">
-        <v>1.8049999999999999</v>
-      </c>
-      <c r="AB28">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="AD28">
-        <v>0.67</v>
-      </c>
-      <c r="AE28">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="AF28">
-        <v>-0.61499999999999999</v>
-      </c>
-      <c r="AH28">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="AI28">
-        <v>-2.8490000000000002</v>
-      </c>
-      <c r="AK28">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="AL28">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AO28">
-        <v>0.185</v>
-      </c>
-      <c r="AP28">
-        <v>-2.1150000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2003</v>
-      </c>
-      <c r="B29">
-        <v>-0.25600000000000001</v>
-      </c>
-      <c r="C29">
-        <v>-1.2030000000000001</v>
-      </c>
-      <c r="D29">
-        <v>-1.276</v>
-      </c>
-      <c r="E29">
-        <v>-0.56599999999999995</v>
-      </c>
-      <c r="K29">
-        <v>-1.321</v>
-      </c>
-      <c r="L29">
-        <v>0.249</v>
-      </c>
-      <c r="M29">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="N29">
-        <v>-0.66500000000000004</v>
-      </c>
-      <c r="O29">
-        <v>-1.39</v>
-      </c>
-      <c r="P29">
-        <v>2.492</v>
-      </c>
-      <c r="U29">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="W29">
-        <v>-1.08</v>
-      </c>
-      <c r="X29">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="Y29">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-      <c r="AB29">
-        <v>-0.23100000000000001</v>
-      </c>
-      <c r="AD29">
-        <v>-1.25</v>
-      </c>
-      <c r="AE29">
-        <v>1.454</v>
-      </c>
-      <c r="AF29">
-        <v>-1.952</v>
-      </c>
-      <c r="AH29">
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="AI29">
-        <v>-1.82</v>
-      </c>
-      <c r="AK29">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="AL29">
-        <v>-0.313</v>
-      </c>
-      <c r="AO29">
-        <v>0.998</v>
-      </c>
-      <c r="AP29">
-        <v>-2.383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2004</v>
-      </c>
-      <c r="B30">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="C30">
-        <v>-0.76</v>
-      </c>
-      <c r="D30">
-        <v>-0.129</v>
-      </c>
-      <c r="E30">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="K30">
-        <v>-0.188</v>
-      </c>
-      <c r="L30">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="M30">
-        <v>1.881</v>
-      </c>
-      <c r="N30">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="O30">
-        <v>-1.306</v>
-      </c>
-      <c r="P30">
-        <v>3.524</v>
-      </c>
-      <c r="U30">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="W30">
-        <v>-0.31900000000000001</v>
-      </c>
-      <c r="X30">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="Y30">
-        <v>0.121</v>
-      </c>
-      <c r="AB30">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="AD30">
-        <v>-1.3</v>
-      </c>
-      <c r="AE30">
-        <v>2.802</v>
-      </c>
-      <c r="AF30">
-        <v>-0.48499999999999999</v>
-      </c>
-      <c r="AH30">
-        <v>-0.13400000000000001</v>
-      </c>
-      <c r="AI30">
-        <v>-1.4870000000000001</v>
-      </c>
-      <c r="AK30">
-        <v>1.948</v>
-      </c>
-      <c r="AL30">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="AO30">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AP30">
-        <v>-1.468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2005</v>
-      </c>
-      <c r="B31">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="C31">
-        <v>-0.52400000000000002</v>
-      </c>
-      <c r="D31">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="E31">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="K31">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="L31">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="M31">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="N31">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="O31">
-        <v>-1.804</v>
-      </c>
-      <c r="P31">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="U31">
-        <v>2.512</v>
-      </c>
-      <c r="W31">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="X31">
-        <v>1.073</v>
-      </c>
-      <c r="Y31">
-        <v>-0.26700000000000002</v>
-      </c>
-      <c r="AB31">
-        <v>-1.1240000000000001</v>
-      </c>
-      <c r="AD31">
-        <v>-1.17</v>
-      </c>
-      <c r="AE31">
-        <v>2.81</v>
-      </c>
-      <c r="AF31">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="AH31">
-        <v>-0.64800000000000002</v>
-      </c>
-      <c r="AI31">
-        <v>-0.32500000000000001</v>
-      </c>
-      <c r="AK31">
-        <v>2.899</v>
-      </c>
-      <c r="AL31">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="AO31">
-        <v>1.784</v>
-      </c>
-      <c r="AP31">
-        <v>-0.71599999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2006</v>
-      </c>
-      <c r="B32">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="C32">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D32">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E32">
-        <v>1.514</v>
-      </c>
-      <c r="K32">
-        <v>3.5409999999999999</v>
-      </c>
-      <c r="L32">
-        <v>9.0470000000000006</v>
-      </c>
-      <c r="M32">
-        <v>3.42</v>
-      </c>
-      <c r="N32">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="O32">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="P32">
-        <v>4.5960000000000001</v>
-      </c>
-      <c r="U32">
-        <v>4.4139999999999997</v>
-      </c>
-      <c r="W32">
-        <v>1.48</v>
-      </c>
-      <c r="X32">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="Y32">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="AB32">
-        <v>-1.165</v>
-      </c>
-      <c r="AD32">
-        <v>0.37</v>
-      </c>
-      <c r="AE32">
-        <v>2.806</v>
-      </c>
-      <c r="AF32">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="AH32">
-        <v>-0.192</v>
-      </c>
-      <c r="AI32">
-        <v>2.0270000000000001</v>
-      </c>
-      <c r="AK32">
-        <v>4.0789999999999997</v>
-      </c>
-      <c r="AL32">
-        <v>3.1989999999999998</v>
-      </c>
-      <c r="AO32">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="AP32">
-        <v>-0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2007</v>
-      </c>
-      <c r="B33">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="C33">
-        <v>2.61</v>
-      </c>
-      <c r="D33">
-        <v>2.1019999999999999</v>
-      </c>
-      <c r="E33">
-        <v>1.8520000000000001</v>
-      </c>
-      <c r="K33">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="L33">
-        <v>11.840999999999999</v>
-      </c>
-      <c r="M33">
-        <v>6.4329999999999998</v>
-      </c>
-      <c r="N33">
-        <v>1.99</v>
-      </c>
-      <c r="O33">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="P33">
-        <v>5.6959999999999997</v>
-      </c>
-      <c r="U33">
-        <v>5.6459999999999999</v>
-      </c>
-      <c r="W33">
-        <v>2.69</v>
-      </c>
-      <c r="X33">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="Y33">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="AB33">
-        <v>2.855</v>
-      </c>
-      <c r="AD33">
-        <v>2.4</v>
-      </c>
-      <c r="AE33">
-        <v>3.5670000000000002</v>
-      </c>
-      <c r="AF33">
-        <v>3.423</v>
-      </c>
-      <c r="AH33">
-        <v>1.264</v>
-      </c>
-      <c r="AI33">
-        <v>6.5350000000000001</v>
-      </c>
-      <c r="AK33">
-        <v>4.8250000000000002</v>
-      </c>
-      <c r="AL33">
-        <v>4.4459999999999997</v>
-      </c>
-      <c r="AO33">
-        <v>3.6120000000000001</v>
-      </c>
-      <c r="AP33">
-        <v>-0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2008</v>
-      </c>
-      <c r="B34">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="C34">
-        <v>2.73</v>
-      </c>
-      <c r="D34">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="E34">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="K34">
-        <v>2.371</v>
-      </c>
-      <c r="L34">
-        <v>3.629</v>
-      </c>
-      <c r="M34">
-        <v>5.3250000000000002</v>
-      </c>
-      <c r="N34">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="O34">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="P34">
-        <v>4.1470000000000002</v>
-      </c>
-      <c r="U34">
-        <v>2.4129999999999998</v>
-      </c>
-      <c r="W34">
-        <v>1.78</v>
-      </c>
-      <c r="X34">
-        <v>-0.84499999999999997</v>
-      </c>
-      <c r="Y34">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="AB34">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="AD34">
-        <v>3.27</v>
-      </c>
-      <c r="AE34">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="AF34">
-        <v>2.4319999999999999</v>
-      </c>
-      <c r="AH34">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="AI34">
-        <v>6.9509999999999996</v>
-      </c>
-      <c r="AK34">
-        <v>3.2719999999999998</v>
-      </c>
-      <c r="AL34">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="AO34">
-        <v>2.1640000000000001</v>
-      </c>
-      <c r="AP34">
-        <v>-2.734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2009</v>
-      </c>
-      <c r="B35">
-        <v>-0.42799999999999999</v>
-      </c>
-      <c r="C35">
-        <v>-1.298</v>
-      </c>
-      <c r="D35">
-        <v>-2.0670000000000002</v>
-      </c>
-      <c r="E35">
-        <v>-3.2109999999999999</v>
-      </c>
-      <c r="K35">
-        <v>-3.11</v>
-      </c>
-      <c r="L35">
-        <v>-10.984999999999999</v>
-      </c>
-      <c r="M35">
-        <v>-3.0720000000000001</v>
-      </c>
-      <c r="N35">
-        <v>-2.524</v>
-      </c>
-      <c r="O35">
-        <v>-3.8450000000000002</v>
-      </c>
-      <c r="P35">
-        <v>-0.40799999999999997</v>
-      </c>
-      <c r="U35">
-        <v>-3.7789999999999999</v>
-      </c>
-      <c r="W35">
-        <v>-3.17</v>
-      </c>
-      <c r="X35">
-        <v>-6.8810000000000002</v>
-      </c>
-      <c r="Y35">
-        <v>-2.2109999999999999</v>
-      </c>
-      <c r="AB35">
-        <v>-2.9390000000000001</v>
-      </c>
-      <c r="AD35">
-        <v>-1.2</v>
-      </c>
-      <c r="AE35">
-        <v>-1.9770000000000001</v>
-      </c>
-      <c r="AF35">
-        <v>-1.0820000000000001</v>
-      </c>
-      <c r="AH35">
-        <v>-2.9820000000000002</v>
-      </c>
-      <c r="AI35">
-        <v>-3.1949999999999998</v>
-      </c>
-      <c r="AK35">
-        <v>-2.1259999999999999</v>
-      </c>
-      <c r="AL35">
-        <v>-4.4790000000000001</v>
-      </c>
-      <c r="AO35">
-        <v>-2.9969999999999999</v>
-      </c>
-      <c r="AP35">
-        <v>-7.2359999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2010</v>
-      </c>
-      <c r="B36">
-        <v>-0.88700000000000001</v>
-      </c>
-      <c r="C36">
-        <v>-0.67500000000000004</v>
-      </c>
-      <c r="D36">
-        <v>-0.65400000000000003</v>
-      </c>
-      <c r="E36">
-        <v>-1.754</v>
-      </c>
-      <c r="K36">
-        <v>-1.839</v>
-      </c>
-      <c r="L36">
-        <v>-8.2759999999999998</v>
-      </c>
-      <c r="M36">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="N36">
-        <v>-1.7629999999999999</v>
-      </c>
-      <c r="O36">
-        <v>-0.97799999999999998</v>
-      </c>
-      <c r="P36">
-        <v>-4.8650000000000002</v>
-      </c>
-      <c r="U36">
-        <v>-3.8759999999999999</v>
-      </c>
-      <c r="W36">
-        <v>-1.31</v>
-      </c>
-      <c r="X36">
-        <v>-3.3820000000000001</v>
-      </c>
-      <c r="Y36">
-        <v>0.54</v>
-      </c>
-      <c r="AB36">
-        <v>0.62</v>
-      </c>
-      <c r="AD36">
-        <v>-0.74</v>
-      </c>
-      <c r="AE36">
-        <v>-2.2770000000000001</v>
-      </c>
-      <c r="AF36">
-        <v>-1.0760000000000001</v>
-      </c>
-      <c r="AH36">
-        <v>-1.579</v>
-      </c>
-      <c r="AI36">
-        <v>-1.859</v>
-      </c>
-      <c r="AK36">
-        <v>-2.9369999999999998</v>
-      </c>
-      <c r="AL36">
-        <v>-1.05</v>
-      </c>
-      <c r="AO36">
-        <v>-2.0329999999999999</v>
-      </c>
-      <c r="AP36">
-        <v>-6.5140000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2011</v>
-      </c>
-      <c r="B37">
-        <v>-0.94699999999999995</v>
-      </c>
-      <c r="C37">
-        <v>1.087</v>
-      </c>
-      <c r="D37">
-        <v>-0.316</v>
-      </c>
-      <c r="E37">
-        <v>-0.35399999999999998</v>
-      </c>
-      <c r="K37">
-        <v>-1.236</v>
-      </c>
-      <c r="L37">
-        <v>-2.7309999999999999</v>
-      </c>
-      <c r="M37">
-        <v>1.79</v>
-      </c>
-      <c r="N37">
-        <v>-0.72799999999999998</v>
-      </c>
-      <c r="O37">
-        <v>1.357</v>
-      </c>
-      <c r="P37">
-        <v>-12.163</v>
-      </c>
-      <c r="U37">
-        <v>-4.2</v>
-      </c>
-      <c r="W37">
-        <v>-0.45800000000000002</v>
-      </c>
-      <c r="X37">
-        <v>-3.923</v>
-      </c>
-      <c r="Y37">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="AB37">
-        <v>1.296</v>
-      </c>
-      <c r="AD37">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE37">
-        <v>-2.5510000000000002</v>
-      </c>
-      <c r="AF37">
-        <v>-1.17</v>
-      </c>
-      <c r="AH37">
-        <v>-3.4060000000000001</v>
-      </c>
-      <c r="AI37">
-        <v>-2.31</v>
-      </c>
-      <c r="AK37">
-        <v>-4.2510000000000003</v>
-      </c>
-      <c r="AL37">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="AO37">
-        <v>-2.0209999999999999</v>
-      </c>
-      <c r="AP37">
-        <v>-6.5750000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2012</v>
-      </c>
-      <c r="B38">
-        <v>-0.155</v>
-      </c>
-      <c r="C38">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="D38">
-        <v>-0.93100000000000005</v>
-      </c>
-      <c r="E38">
-        <v>-0.40699999999999997</v>
-      </c>
-      <c r="K38">
-        <v>-1.8919999999999999</v>
-      </c>
-      <c r="L38">
-        <v>-1.58</v>
-      </c>
-      <c r="M38">
-        <v>-0.16700000000000001</v>
-      </c>
-      <c r="N38">
-        <v>-1.452</v>
-      </c>
-      <c r="O38">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="P38">
-        <v>-15.779</v>
-      </c>
-      <c r="U38">
-        <v>-4.9480000000000004</v>
-      </c>
-      <c r="W38">
-        <v>-2.79</v>
-      </c>
-      <c r="X38">
-        <v>-3.2149999999999999</v>
-      </c>
-      <c r="Y38">
-        <v>-0.38700000000000001</v>
-      </c>
-      <c r="AB38">
-        <v>-0.93700000000000006</v>
-      </c>
-      <c r="AD38">
-        <v>-1.84</v>
-      </c>
-      <c r="AE38">
-        <v>-2.395</v>
-      </c>
-      <c r="AF38">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AH38">
-        <v>-7.2270000000000003</v>
-      </c>
-      <c r="AI38">
-        <v>-2.5009999999999999</v>
-      </c>
-      <c r="AK38">
-        <v>-7.5529999999999999</v>
-      </c>
-      <c r="AL38">
-        <v>-1.304</v>
-      </c>
-      <c r="AO38">
-        <v>-2.0760000000000001</v>
-      </c>
-      <c r="AP38">
-        <v>-5.6989999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2013</v>
-      </c>
-      <c r="B39">
-        <v>-0.77900000000000003</v>
-      </c>
-      <c r="C39">
-        <v>-0.34300000000000003</v>
-      </c>
-      <c r="D39">
-        <v>-1.827</v>
-      </c>
-      <c r="E39">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="K39">
-        <v>-2.0779999999999998</v>
-      </c>
-      <c r="L39">
-        <v>-2.3239999999999998</v>
-      </c>
-      <c r="M39">
-        <v>-1.954</v>
-      </c>
-      <c r="N39">
-        <v>-1.9750000000000001</v>
-      </c>
-      <c r="O39">
-        <v>-0.81299999999999994</v>
-      </c>
-      <c r="P39">
-        <v>-15.644</v>
-      </c>
-      <c r="U39">
-        <v>-3.165</v>
-      </c>
-      <c r="W39">
-        <v>-4.07</v>
-      </c>
-      <c r="X39">
-        <v>-1.895</v>
-      </c>
-      <c r="Y39">
-        <v>-0.48699999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>-0.29099999999999998</v>
-      </c>
-      <c r="AD39">
-        <v>-2.83</v>
-      </c>
-      <c r="AE39">
-        <v>-2.5310000000000001</v>
-      </c>
-      <c r="AF39">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="AH39">
-        <v>-7.8</v>
-      </c>
-      <c r="AI39">
-        <v>-2.8679999999999999</v>
-      </c>
-      <c r="AK39">
-        <v>-8.9499999999999993</v>
-      </c>
-      <c r="AL39">
-        <v>-2.0459999999999998</v>
-      </c>
-      <c r="AO39">
-        <v>-1.5720000000000001</v>
-      </c>
-      <c r="AP39">
-        <v>-5.0519999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2014</v>
-      </c>
-      <c r="B40">
-        <v>-0.92200000000000004</v>
-      </c>
-      <c r="C40">
-        <v>-0.96299999999999997</v>
-      </c>
-      <c r="D40">
-        <v>-1.714</v>
-      </c>
-      <c r="E40">
-        <v>1.018</v>
-      </c>
-      <c r="K40">
-        <v>-1.821</v>
-      </c>
-      <c r="L40">
-        <v>-1.6739999999999999</v>
-      </c>
-      <c r="M40">
-        <v>-3.0230000000000001</v>
-      </c>
-      <c r="N40">
-        <v>-2.1920000000000002</v>
-      </c>
-      <c r="O40">
-        <v>-0.34</v>
-      </c>
-      <c r="P40">
-        <v>-13.06</v>
-      </c>
-      <c r="U40">
-        <v>-1.2</v>
-      </c>
-      <c r="W40">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="X40">
-        <v>-2.29</v>
-      </c>
-      <c r="Y40">
-        <v>-0.57599999999999996</v>
-      </c>
-      <c r="AB40">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AD40">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="AE40">
-        <v>-1.5840000000000001</v>
-      </c>
-      <c r="AF40">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="AH40">
-        <v>-6.8330000000000002</v>
-      </c>
-      <c r="AI40">
-        <v>-1.5069999999999999</v>
-      </c>
-      <c r="AK40">
-        <v>-7.7880000000000003</v>
-      </c>
-      <c r="AL40">
-        <v>-1.1870000000000001</v>
-      </c>
-      <c r="AO40">
-        <v>-0.51400000000000001</v>
-      </c>
-      <c r="AP40">
-        <v>-3.9710000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2015</v>
-      </c>
-      <c r="B41">
-        <v>-1.1659999999999999</v>
-      </c>
-      <c r="C41">
-        <v>-0.92600000000000005</v>
-      </c>
-      <c r="D41">
-        <v>-1.1930000000000001</v>
-      </c>
-      <c r="E41">
-        <v>-0.14699999999999999</v>
-      </c>
-      <c r="K41">
-        <v>-1.056</v>
-      </c>
-      <c r="L41">
-        <v>-2.0630000000000002</v>
-      </c>
-      <c r="M41">
-        <v>-3.7629999999999999</v>
-      </c>
-      <c r="N41">
-        <v>-2.3929999999999998</v>
-      </c>
-      <c r="O41">
-        <v>-0.34300000000000003</v>
-      </c>
-      <c r="P41">
-        <v>-11.962</v>
-      </c>
-      <c r="U41">
-        <v>0.5</v>
-      </c>
-      <c r="W41">
-        <v>-3.43</v>
-      </c>
-      <c r="X41">
-        <v>-1.5489999999999999</v>
-      </c>
-      <c r="Y41">
-        <v>-0.85299999999999998</v>
-      </c>
-      <c r="AB41">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AD41">
-        <v>-1.84</v>
-      </c>
-      <c r="AE41">
-        <v>-0.88600000000000001</v>
-      </c>
-      <c r="AF41">
-        <v>-0.32300000000000001</v>
-      </c>
-      <c r="AH41">
-        <v>-5.141</v>
-      </c>
-      <c r="AI41">
-        <v>1.19</v>
-      </c>
-      <c r="AK41">
-        <v>-4.7830000000000004</v>
-      </c>
-      <c r="AL41">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="AO41">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="AP41">
-        <v>-2.544</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2016</v>
-      </c>
-      <c r="B42">
-        <v>-0.86799999999999999</v>
-      </c>
-      <c r="C42">
-        <v>-0.499</v>
-      </c>
-      <c r="D42">
-        <v>-1.3169999999999999</v>
-      </c>
-      <c r="E42">
-        <v>-0.94899999999999995</v>
-      </c>
-      <c r="K42">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="L42">
-        <v>-1.4</v>
-      </c>
-      <c r="M42">
-        <v>-2.4350000000000001</v>
-      </c>
-      <c r="N42">
-        <v>-2.621</v>
-      </c>
-      <c r="O42">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="P42">
-        <v>-10.71</v>
-      </c>
-      <c r="U42">
-        <v>1.9</v>
-      </c>
-      <c r="W42">
-        <v>-2.6139999999999999</v>
-      </c>
-      <c r="X42">
-        <v>-1.4550000000000001</v>
-      </c>
-      <c r="Y42">
-        <v>-0.83</v>
-      </c>
-      <c r="AB42">
-        <v>1.6970000000000001</v>
-      </c>
-      <c r="AD42">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="AE42">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AF42">
-        <v>-0.95899999999999996</v>
-      </c>
-      <c r="AH42">
-        <v>-3.577</v>
-      </c>
-      <c r="AI42">
-        <v>1.27</v>
-      </c>
-      <c r="AK42">
-        <v>-2.7759999999999998</v>
-      </c>
-      <c r="AL42">
-        <v>0.308</v>
-      </c>
-      <c r="AO42">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="AP42">
-        <v>-2.15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2017</v>
-      </c>
-      <c r="B43">
-        <v>-0.75800000000000001</v>
-      </c>
-      <c r="C43">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="D43">
-        <v>-1.0580000000000001</v>
-      </c>
-      <c r="E43">
-        <v>0.374</v>
-      </c>
-      <c r="K43">
-        <v>1.427</v>
-      </c>
-      <c r="L43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M43">
-        <v>-0.88600000000000001</v>
-      </c>
-      <c r="N43">
-        <v>-1.528</v>
-      </c>
-      <c r="O43">
-        <v>0.998</v>
-      </c>
-      <c r="P43">
-        <v>-8.4179999999999993</v>
-      </c>
-      <c r="U43">
-        <v>1.472</v>
-      </c>
-      <c r="W43">
-        <v>-1.62</v>
-      </c>
-      <c r="X43">
-        <v>-0.53400000000000003</v>
-      </c>
-      <c r="Y43">
-        <v>-0.51800000000000002</v>
-      </c>
-      <c r="AB43">
-        <v>-0.49</v>
-      </c>
-      <c r="AD43">
-        <v>-0.05</v>
-      </c>
-      <c r="AE43">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="AF43">
-        <v>-0.56799999999999995</v>
-      </c>
-      <c r="AH43">
-        <v>-1.0860000000000001</v>
-      </c>
-      <c r="AI43">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="AK43">
-        <v>-1.075</v>
-      </c>
-      <c r="AL43">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="AO43">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="AP43">
-        <v>-1.3169999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2018</v>
-      </c>
-      <c r="B44">
-        <v>-0.35799999999999998</v>
-      </c>
-      <c r="C44">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="D44">
-        <v>-0.48399999999999999</v>
-      </c>
-      <c r="E44">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="K44">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="L44">
-        <v>2.0369999999999999</v>
-      </c>
-      <c r="M44">
-        <v>-1.0429999999999999</v>
-      </c>
-      <c r="N44">
-        <v>-0.78300000000000003</v>
-      </c>
-      <c r="O44">
-        <v>0.82</v>
-      </c>
-      <c r="P44">
-        <v>-5.9290000000000003</v>
-      </c>
-      <c r="U44">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="W44">
-        <v>-1.133</v>
-      </c>
-      <c r="X44">
-        <v>-0.90700000000000003</v>
-      </c>
-      <c r="Y44">
-        <v>-0.316</v>
-      </c>
-      <c r="AB44">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="AD44">
-        <v>0.7</v>
-      </c>
-      <c r="AE44">
-        <v>1.04</v>
-      </c>
-      <c r="AF44">
-        <v>-0.214</v>
-      </c>
-      <c r="AH44">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="AI44">
-        <v>1.476</v>
-      </c>
-      <c r="AK44">
-        <v>-0.03</v>
-      </c>
-      <c r="AL44">
-        <v>1.86</v>
-      </c>
-      <c r="AO44">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="AP44">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2019</v>
-      </c>
-      <c r="B45">
-        <v>-0.74199999999999999</v>
-      </c>
-      <c r="C45">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="D45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E45">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="K45">
-        <v>1.804</v>
-      </c>
-      <c r="L45">
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="M45">
-        <v>-1.0369999999999999</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="P45">
-        <v>-3.67</v>
-      </c>
-      <c r="U45">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="W45">
-        <v>-1.2729999999999999</v>
-      </c>
-      <c r="X45">
-        <v>-1.5109999999999999</v>
-      </c>
-      <c r="Y45">
-        <v>-0.70099999999999996</v>
-      </c>
-      <c r="AB45">
-        <v>1.087</v>
-      </c>
-      <c r="AD45">
-        <v>0.6</v>
-      </c>
-      <c r="AE45">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="AF45">
-        <v>0.2</v>
-      </c>
-      <c r="AH45">
-        <v>1.397</v>
-      </c>
-      <c r="AI45">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="AK45">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="AL45">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="AO45">
-        <v>0.106</v>
-      </c>
-      <c r="AP45">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>2020</v>
-      </c>
-      <c r="B46">
-        <v>-4.2880000000000003</v>
-      </c>
-      <c r="C46">
-        <v>-1.2969999999999999</v>
-      </c>
-      <c r="D46">
-        <v>-3.548</v>
-      </c>
-      <c r="E46">
-        <v>-3.3540000000000001</v>
-      </c>
-      <c r="K46">
-        <v>-1.9179999999999999</v>
-      </c>
-      <c r="L46">
-        <v>-2.9660000000000002</v>
-      </c>
-      <c r="M46">
-        <v>-4.3120000000000003</v>
-      </c>
-      <c r="N46">
-        <v>-4.3239999999999998</v>
-      </c>
-      <c r="O46">
-        <v>-2.6040000000000001</v>
-      </c>
-      <c r="P46">
-        <v>-10.801</v>
-      </c>
-      <c r="U46">
-        <v>-2.29</v>
-      </c>
-      <c r="W46">
-        <v>-6.1360000000000001</v>
-      </c>
-      <c r="X46">
-        <v>-2.7480000000000002</v>
-      </c>
-      <c r="Y46">
-        <v>-2.8119999999999998</v>
-      </c>
-      <c r="AB46">
-        <v>-1.9570000000000001</v>
-      </c>
-      <c r="AD46">
-        <v>-1.8</v>
-      </c>
-      <c r="AE46">
-        <v>-2.9889999999999999</v>
-      </c>
-      <c r="AF46">
-        <v>-2.746</v>
-      </c>
-      <c r="AH46">
-        <v>-4.9779999999999998</v>
-      </c>
-      <c r="AI46">
-        <v>-4.5860000000000003</v>
-      </c>
-      <c r="AK46">
-        <v>-8.5120000000000005</v>
-      </c>
-      <c r="AL46">
-        <v>-1.133</v>
-      </c>
-      <c r="AO46">
-        <v>-4.2830000000000004</v>
-      </c>
-      <c r="AP46">
-        <v>-3.3170000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2021</v>
-      </c>
-      <c r="B47">
-        <v>-2.258</v>
-      </c>
-      <c r="C47">
-        <v>-1.5049999999999999</v>
-      </c>
-      <c r="D47">
-        <v>-1.5960000000000001</v>
-      </c>
-      <c r="E47">
-        <v>-1.0429999999999999</v>
-      </c>
-      <c r="K47">
-        <v>-0.32200000000000001</v>
-      </c>
-      <c r="L47">
-        <v>0.74</v>
-      </c>
-      <c r="M47">
-        <v>-2.3159999999999998</v>
-      </c>
-      <c r="N47">
-        <v>-2.242</v>
-      </c>
-      <c r="O47">
-        <v>-2.0129999999999999</v>
-      </c>
-      <c r="P47">
-        <v>-5.585</v>
-      </c>
-      <c r="U47">
-        <v>-0.22800000000000001</v>
-      </c>
-      <c r="W47">
-        <v>-4.9039999999999999</v>
-      </c>
-      <c r="X47">
-        <v>-2.4169999999999998</v>
-      </c>
-      <c r="Y47">
-        <v>-1.5389999999999999</v>
-      </c>
-      <c r="AB47">
-        <v>-0.70099999999999996</v>
-      </c>
-      <c r="AD47">
-        <v>-1.5</v>
-      </c>
-      <c r="AE47">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="AF47">
-        <v>-1.17</v>
-      </c>
-      <c r="AH47">
-        <v>-2.9780000000000002</v>
-      </c>
-      <c r="AI47">
-        <v>-2.5680000000000001</v>
-      </c>
-      <c r="AK47">
-        <v>-5.37</v>
-      </c>
-      <c r="AL47">
-        <v>-0.63700000000000001</v>
-      </c>
-      <c r="AO47">
-        <v>-2.13</v>
-      </c>
-      <c r="AP47">
-        <v>0.55800000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2022</v>
-      </c>
-      <c r="B48">
-        <v>0.03</v>
-      </c>
-      <c r="C48">
-        <v>-0.46200000000000002</v>
-      </c>
-      <c r="D48">
-        <v>-0.28599999999999998</v>
-      </c>
-      <c r="E48">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="K48">
-        <v>0.314</v>
-      </c>
-      <c r="L48">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="M48">
-        <v>-0.25700000000000001</v>
-      </c>
-      <c r="N48">
-        <v>-0.20300000000000001</v>
-      </c>
-      <c r="O48">
-        <v>-0.27700000000000002</v>
-      </c>
-      <c r="P48">
-        <v>-2.0459999999999998</v>
-      </c>
-      <c r="U48">
-        <v>-0.192</v>
-      </c>
-      <c r="W48">
-        <v>-1.411</v>
-      </c>
-      <c r="X48">
-        <v>-0.8</v>
-      </c>
-      <c r="Y48">
-        <v>-0.7</v>
-      </c>
-      <c r="AB48">
-        <v>-0.109</v>
-      </c>
-      <c r="AD48">
-        <v>-0.8</v>
-      </c>
-      <c r="AE48">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="AF48">
-        <v>-0.16</v>
-      </c>
-      <c r="AH48">
-        <v>-0.90400000000000003</v>
-      </c>
-      <c r="AI48">
-        <v>-0.91500000000000004</v>
-      </c>
-      <c r="AK48">
-        <v>-1.044</v>
-      </c>
-      <c r="AL48">
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="AO48">
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="AP48">
-        <v>3.3010000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>